--- a/Experimentos/teste_geral/Dataset1/statistic_average_fitness.xlsx
+++ b/Experimentos/teste_geral/Dataset1/statistic_average_fitness.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\ESCOLA\2ano\2semestre\INTELIGENCIA-ARTIFICIAL\projeto-IA\Experimentos\teste_geral\Dataset1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDEA1AC7-54F5-44D8-8CB3-DD85B28C29FF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7350F6-91B3-4DD6-A94D-305C077E05D3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statistic_average_fitness" sheetId="1" r:id="rId1"/>
@@ -61,12 +61,6 @@
     <t>Swap</t>
   </si>
   <si>
-    <t>Scrumble</t>
-  </si>
-  <si>
-    <t>Inversion</t>
-  </si>
-  <si>
     <t>OX1</t>
   </si>
   <si>
@@ -90,11 +84,17 @@
   <si>
     <t>PUZZLE 1 - AVERAGE FITNESS</t>
   </si>
+  <si>
+    <t>Scramble</t>
+  </si>
+  <si>
+    <t>Inversion</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -644,24 +644,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A2:L258" totalsRowShown="0">
-  <autoFilter ref="A2:L258"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A2:L258" totalsRowShown="0">
+  <autoFilter ref="A2:L258" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L258">
     <sortCondition ref="I2:I258"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" name="Population size:"/>
-    <tableColumn id="2" name="Max generations:"/>
-    <tableColumn id="3" name="Selection:"/>
-    <tableColumn id="4" name="Recombination:"/>
-    <tableColumn id="5" name="Recombination prob,:"/>
-    <tableColumn id="6" name="Mutation:"/>
-    <tableColumn id="7" name="Mutation prob,:"/>
-    <tableColumn id="8" name="Coluna1"/>
-    <tableColumn id="9" name="Average:"/>
-    <tableColumn id="10" name="StdDev:"/>
-    <tableColumn id="11" name="Time Best av:"/>
-    <tableColumn id="12" name="Time Total av:"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Population size:"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Max generations:"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Selection:"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Recombination:"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Recombination prob,:"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Mutation:"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Mutation prob,:"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Coluna1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Average:"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="StdDev:"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Time Best av:"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Time Total av:"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -963,11 +963,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F9" sqref="F9:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,7 +988,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1016,16 +1016,16 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
@@ -1051,7 +1051,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0.7</v>
@@ -1086,7 +1086,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0.8</v>
@@ -1121,7 +1121,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0.8</v>
@@ -1156,13 +1156,13 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>0.8</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6">
         <v>0.4</v>
@@ -1174,15 +1174,15 @@
         <v>0.39191835884530801</v>
       </c>
       <c r="K6">
-        <v>274.56</v>
+        <v>262.08</v>
       </c>
       <c r="L6">
-        <v>912.14</v>
+        <v>902.24</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B7">
         <v>1000</v>
@@ -1191,33 +1191,33 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I7">
-        <v>84.08</v>
+        <v>84.12</v>
       </c>
       <c r="J7">
-        <v>0.39191835884530801</v>
+        <v>0.47497368348151697</v>
       </c>
       <c r="K7">
-        <v>222.8</v>
+        <v>116.96</v>
       </c>
       <c r="L7">
-        <v>858.36</v>
+        <v>462.46</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B8">
         <v>1000</v>
@@ -1226,28 +1226,28 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I8">
         <v>84.12</v>
       </c>
       <c r="J8">
-        <v>0.47497368348151697</v>
+        <v>0.47497368348151597</v>
       </c>
       <c r="K8">
-        <v>116.96</v>
+        <v>185.94</v>
       </c>
       <c r="L8">
-        <v>462.46</v>
+        <v>825.04</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1261,13 +1261,13 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0.7</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G9">
         <v>0.2</v>
@@ -1279,10 +1279,10 @@
         <v>0.47497368348151697</v>
       </c>
       <c r="K9">
-        <v>253.7</v>
+        <v>244.54</v>
       </c>
       <c r="L9">
-        <v>860.72</v>
+        <v>902.68</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1296,16 +1296,16 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G10">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I10">
         <v>84.12</v>
@@ -1314,10 +1314,10 @@
         <v>0.47497368348151597</v>
       </c>
       <c r="K10">
-        <v>185.94</v>
+        <v>278.86</v>
       </c>
       <c r="L10">
-        <v>825.04</v>
+        <v>887.28</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1331,28 +1331,28 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0.8</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G11">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I11">
         <v>84.12</v>
       </c>
       <c r="J11">
-        <v>0.47497368348151597</v>
+        <v>0.47497368348151697</v>
       </c>
       <c r="K11">
-        <v>289.18</v>
+        <v>251.5</v>
       </c>
       <c r="L11">
-        <v>907.94</v>
+        <v>895.86</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1366,28 +1366,28 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E12">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G12">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I12">
-        <v>84.16</v>
+        <v>84.12</v>
       </c>
       <c r="J12">
-        <v>0.54258639865002101</v>
+        <v>0.47497368348151597</v>
       </c>
       <c r="K12">
-        <v>295.52</v>
+        <v>237.64</v>
       </c>
       <c r="L12">
-        <v>919.68</v>
+        <v>909.94</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1401,28 +1401,28 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E13">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G13">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I13">
-        <v>84.16</v>
+        <v>84.2</v>
       </c>
       <c r="J13">
-        <v>0.54258639865002101</v>
+        <v>0.72111025509279802</v>
       </c>
       <c r="K13">
-        <v>206.74</v>
+        <v>118.58</v>
       </c>
       <c r="L13">
-        <v>857.34</v>
+        <v>811.84</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1436,13 +1436,13 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E14">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G14">
         <v>0.4</v>
@@ -1454,10 +1454,10 @@
         <v>0.6</v>
       </c>
       <c r="K14">
-        <v>277.44</v>
+        <v>280.98</v>
       </c>
       <c r="L14">
-        <v>866.5</v>
+        <v>920.24</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1471,28 +1471,28 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E15">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G15">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I15">
         <v>84.2</v>
       </c>
       <c r="J15">
-        <v>0.72111025509279802</v>
+        <v>0.6</v>
       </c>
       <c r="K15">
-        <v>118.58</v>
+        <v>270.86</v>
       </c>
       <c r="L15">
-        <v>811.84</v>
+        <v>872.58</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1506,33 +1506,33 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0.7</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G16">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I16">
-        <v>84.2</v>
+        <v>84.24</v>
       </c>
       <c r="J16">
-        <v>0.59999999999999898</v>
+        <v>0.64992307237087599</v>
       </c>
       <c r="K16">
-        <v>277.26</v>
+        <v>207.08</v>
       </c>
       <c r="L16">
-        <v>837.12</v>
+        <v>832</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B17">
         <v>1000</v>
@@ -1541,28 +1541,28 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0.8</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G17">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I17">
-        <v>84.2</v>
+        <v>84.24</v>
       </c>
       <c r="J17">
-        <v>0.59999999999999898</v>
+        <v>0.64992307237087599</v>
       </c>
       <c r="K17">
-        <v>258.04000000000002</v>
+        <v>133.80000000000001</v>
       </c>
       <c r="L17">
-        <v>840.94</v>
+        <v>415.06</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1576,7 +1576,7 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0.8</v>
@@ -1585,19 +1585,19 @@
         <v>12</v>
       </c>
       <c r="G18">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I18">
-        <v>84.24</v>
+        <v>84.28</v>
       </c>
       <c r="J18">
-        <v>0.64992307237087599</v>
+        <v>0.800999375780032</v>
       </c>
       <c r="K18">
-        <v>133.80000000000001</v>
+        <v>104.94</v>
       </c>
       <c r="L18">
-        <v>415.06</v>
+        <v>410.02</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1611,10 +1611,10 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E19">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -1623,16 +1623,16 @@
         <v>0.4</v>
       </c>
       <c r="I19">
-        <v>84.24</v>
+        <v>84.32</v>
       </c>
       <c r="J19">
-        <v>0.64992307237087599</v>
+        <v>0.73321211119293395</v>
       </c>
       <c r="K19">
-        <v>207.08</v>
+        <v>230.86</v>
       </c>
       <c r="L19">
-        <v>832</v>
+        <v>830.02</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1646,28 +1646,28 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G20">
         <v>0.4</v>
       </c>
       <c r="I20">
-        <v>84.24</v>
+        <v>84.32</v>
       </c>
       <c r="J20">
-        <v>0.64992307237087599</v>
+        <v>0.73321211119293395</v>
       </c>
       <c r="K20">
-        <v>263.66000000000003</v>
+        <v>231.18</v>
       </c>
       <c r="L20">
-        <v>901.28</v>
+        <v>832.24</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1681,28 +1681,28 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0.7</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G21">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I21">
-        <v>84.24</v>
+        <v>84.32</v>
       </c>
       <c r="J21">
-        <v>0.64992307237087599</v>
+        <v>1.0087616170334699</v>
       </c>
       <c r="K21">
-        <v>270.62</v>
+        <v>165.28</v>
       </c>
       <c r="L21">
-        <v>841.28</v>
+        <v>870.64</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1716,33 +1716,33 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E22">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G22">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I22">
-        <v>84.28</v>
+        <v>84.36</v>
       </c>
       <c r="J22">
-        <v>0.800999375780032</v>
+        <v>0.76837490849194201</v>
       </c>
       <c r="K22">
-        <v>104.94</v>
+        <v>153.58000000000001</v>
       </c>
       <c r="L22">
-        <v>410.02</v>
+        <v>361.74</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B23">
         <v>1000</v>
@@ -1751,28 +1751,28 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G23">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I23">
-        <v>84.32</v>
+        <v>84.36</v>
       </c>
       <c r="J23">
-        <v>0.73321211119293395</v>
+        <v>0.76837490849194201</v>
       </c>
       <c r="K23">
-        <v>225.76</v>
+        <v>138.06</v>
       </c>
       <c r="L23">
-        <v>865.84</v>
+        <v>399.28</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1789,25 +1789,25 @@
         <v>15</v>
       </c>
       <c r="E24">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G24">
         <v>0.4</v>
       </c>
       <c r="I24">
-        <v>84.32</v>
+        <v>84.4</v>
       </c>
       <c r="J24">
-        <v>0.73321211119293395</v>
+        <v>0.79999999999999905</v>
       </c>
       <c r="K24">
-        <v>230.86</v>
+        <v>265.74</v>
       </c>
       <c r="L24">
-        <v>830.02</v>
+        <v>827.86</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1827,27 +1827,27 @@
         <v>0.7</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G25">
         <v>0.4</v>
       </c>
       <c r="I25">
-        <v>84.36</v>
+        <v>84.44</v>
       </c>
       <c r="J25">
-        <v>0.76837490849194201</v>
+        <v>0.82849260708831796</v>
       </c>
       <c r="K25">
-        <v>274.77999999999997</v>
+        <v>323.86</v>
       </c>
       <c r="L25">
-        <v>898.82</v>
+        <v>906.7</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B26">
         <v>1000</v>
@@ -1856,33 +1856,33 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E26">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G26">
         <v>0.4</v>
       </c>
       <c r="I26">
-        <v>84.4</v>
+        <v>84.44</v>
       </c>
       <c r="J26">
-        <v>0.79999999999999905</v>
+        <v>0.82849260708831796</v>
       </c>
       <c r="K26">
-        <v>202.46</v>
+        <v>298.92</v>
       </c>
       <c r="L26">
-        <v>514.78</v>
+        <v>900.38</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B27">
         <v>1000</v>
@@ -1891,28 +1891,28 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>0.8</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G27">
         <v>0.4</v>
       </c>
       <c r="I27">
-        <v>84.4</v>
+        <v>84.44</v>
       </c>
       <c r="J27">
-        <v>0.79999999999999905</v>
+        <v>0.82849260708831796</v>
       </c>
       <c r="K27">
-        <v>159.04</v>
+        <v>274.68</v>
       </c>
       <c r="L27">
-        <v>431.48</v>
+        <v>883.56</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1932,22 +1932,22 @@
         <v>0.8</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G28">
         <v>0.4</v>
       </c>
       <c r="I28">
-        <v>84.4</v>
+        <v>84.48</v>
       </c>
       <c r="J28">
-        <v>0.79999999999999905</v>
+        <v>0.85416626016250397</v>
       </c>
       <c r="K28">
-        <v>296.42</v>
+        <v>286.74</v>
       </c>
       <c r="L28">
-        <v>851.8</v>
+        <v>821.64</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1961,33 +1961,33 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E29">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
       </c>
       <c r="G29">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I29">
-        <v>84.4</v>
+        <v>84.48</v>
       </c>
       <c r="J29">
-        <v>0.79999999999999905</v>
+        <v>0.85416626016250397</v>
       </c>
       <c r="K29">
-        <v>265.74</v>
+        <v>226.24</v>
       </c>
       <c r="L29">
-        <v>827.86</v>
+        <v>817.46</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B30">
         <v>1000</v>
@@ -1996,33 +1996,33 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>0.8</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G30">
         <v>0.4</v>
       </c>
       <c r="I30">
-        <v>84.44</v>
+        <v>84.48</v>
       </c>
       <c r="J30">
-        <v>0.82849260708831796</v>
+        <v>0.94318608980412699</v>
       </c>
       <c r="K30">
-        <v>159.26</v>
+        <v>312.44</v>
       </c>
       <c r="L30">
-        <v>450.5</v>
+        <v>822.3</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B31">
         <v>1000</v>
@@ -2031,13 +2031,13 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E31">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G31">
         <v>0.4</v>
@@ -2049,10 +2049,10 @@
         <v>0.85416626016250397</v>
       </c>
       <c r="K31">
-        <v>158.94</v>
+        <v>291.64</v>
       </c>
       <c r="L31">
-        <v>438.04</v>
+        <v>915.46</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2069,30 +2069,30 @@
         <v>15</v>
       </c>
       <c r="E32">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G32">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I32">
-        <v>84.48</v>
+        <v>84.52</v>
       </c>
       <c r="J32">
-        <v>0.85416626016250397</v>
+        <v>0.87726848797845203</v>
       </c>
       <c r="K32">
-        <v>322.58</v>
+        <v>286.5</v>
       </c>
       <c r="L32">
-        <v>897.68</v>
+        <v>825.5</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B33">
         <v>1000</v>
@@ -2101,28 +2101,28 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E33">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G33">
         <v>0.4</v>
       </c>
       <c r="I33">
-        <v>84.48</v>
+        <v>84.52</v>
       </c>
       <c r="J33">
-        <v>0.85416626016250397</v>
+        <v>0.87726848797845203</v>
       </c>
       <c r="K33">
-        <v>286.74</v>
+        <v>123.72</v>
       </c>
       <c r="L33">
-        <v>821.64</v>
+        <v>386.7</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -2136,28 +2136,28 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E34">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G34">
         <v>0.2</v>
       </c>
       <c r="I34">
-        <v>84.48</v>
+        <v>84.52</v>
       </c>
       <c r="J34">
-        <v>0.85416626016250397</v>
+        <v>0.87726848797845203</v>
       </c>
       <c r="K34">
-        <v>226.24</v>
+        <v>240.16</v>
       </c>
       <c r="L34">
-        <v>817.46</v>
+        <v>884.12</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -2171,28 +2171,28 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E35">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G35">
         <v>0.4</v>
       </c>
       <c r="I35">
-        <v>84.48</v>
+        <v>84.56</v>
       </c>
       <c r="J35">
-        <v>0.94318608980412699</v>
+        <v>0.897997772825745</v>
       </c>
       <c r="K35">
-        <v>312.44</v>
+        <v>233.84</v>
       </c>
       <c r="L35">
-        <v>822.3</v>
+        <v>828.44</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2203,31 +2203,31 @@
         <v>1000</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E36">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G36">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I36">
-        <v>84.48</v>
+        <v>84.56</v>
       </c>
       <c r="J36">
-        <v>0.85416626016250397</v>
+        <v>0.897997772825745</v>
       </c>
       <c r="K36">
-        <v>270.27999999999997</v>
+        <v>360.18</v>
       </c>
       <c r="L36">
-        <v>848.2</v>
+        <v>883.78</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2241,28 +2241,28 @@
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E37">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G37">
         <v>0.4</v>
       </c>
       <c r="I37">
-        <v>84.52</v>
+        <v>84.6</v>
       </c>
       <c r="J37">
-        <v>0.87726848797845203</v>
+        <v>0.91651513899116699</v>
       </c>
       <c r="K37">
-        <v>151.34</v>
+        <v>144.58000000000001</v>
       </c>
       <c r="L37">
-        <v>470.34</v>
+        <v>417.92</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2276,28 +2276,28 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E38">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G38">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I38">
-        <v>84.52</v>
+        <v>84.6</v>
       </c>
       <c r="J38">
-        <v>0.87726848797845203</v>
+        <v>1.28062484748657</v>
       </c>
       <c r="K38">
-        <v>171.44</v>
+        <v>76.28</v>
       </c>
       <c r="L38">
-        <v>489.04</v>
+        <v>446.6</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2311,28 +2311,28 @@
         <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E39">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G39">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I39">
-        <v>84.52</v>
+        <v>84.6</v>
       </c>
       <c r="J39">
-        <v>0.96415766345551501</v>
+        <v>0.91651513899116699</v>
       </c>
       <c r="K39">
-        <v>145.96</v>
+        <v>124.06</v>
       </c>
       <c r="L39">
-        <v>474.74</v>
+        <v>375.6</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2346,28 +2346,28 @@
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E40">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G40">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I40">
-        <v>84.52</v>
+        <v>84.64</v>
       </c>
       <c r="J40">
-        <v>0.96415766345551501</v>
+        <v>0.93295230317524702</v>
       </c>
       <c r="K40">
-        <v>155.5</v>
+        <v>159.74</v>
       </c>
       <c r="L40">
-        <v>419.56</v>
+        <v>465.68</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2381,28 +2381,28 @@
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E41">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G41">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I41">
-        <v>84.52</v>
+        <v>84.64</v>
       </c>
       <c r="J41">
-        <v>0.87726848797845203</v>
+        <v>1.1620671237067099</v>
       </c>
       <c r="K41">
-        <v>126.94</v>
+        <v>109.46</v>
       </c>
       <c r="L41">
-        <v>448.5</v>
+        <v>355.5</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2416,33 +2416,33 @@
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E42">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G42">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I42">
-        <v>84.52</v>
+        <v>84.68</v>
       </c>
       <c r="J42">
-        <v>0.87726848797845203</v>
+        <v>0.94741754258616095</v>
       </c>
       <c r="K42">
-        <v>141.4</v>
+        <v>143.12</v>
       </c>
       <c r="L42">
-        <v>424.46</v>
+        <v>409.06</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B43">
         <v>1000</v>
@@ -2451,33 +2451,33 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E43">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G43">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I43">
-        <v>84.52</v>
+        <v>84.68</v>
       </c>
       <c r="J43">
-        <v>0.87726848797845203</v>
+        <v>0.94741754258616095</v>
       </c>
       <c r="K43">
-        <v>286.5</v>
+        <v>153.02000000000001</v>
       </c>
       <c r="L43">
-        <v>825.5</v>
+        <v>374.72</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B44">
         <v>1000</v>
@@ -2486,28 +2486,28 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E44">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G44">
         <v>0.4</v>
       </c>
       <c r="I44">
-        <v>84.56</v>
+        <v>84.68</v>
       </c>
       <c r="J44">
-        <v>0.897997772825745</v>
+        <v>1.02839681057459</v>
       </c>
       <c r="K44">
-        <v>219.9</v>
+        <v>113.8</v>
       </c>
       <c r="L44">
-        <v>840.72</v>
+        <v>397.64</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2521,28 +2521,28 @@
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E45">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G45">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I45">
-        <v>84.56</v>
+        <v>84.68</v>
       </c>
       <c r="J45">
-        <v>0.897997772825745</v>
+        <v>0.94741754258616095</v>
       </c>
       <c r="K45">
-        <v>233.84</v>
+        <v>301.52</v>
       </c>
       <c r="L45">
-        <v>828.44</v>
+        <v>898.7</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2556,28 +2556,28 @@
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E46">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G46">
         <v>0.2</v>
       </c>
       <c r="I46">
-        <v>84.56</v>
+        <v>84.72</v>
       </c>
       <c r="J46">
-        <v>0.897997772825745</v>
+        <v>1.04</v>
       </c>
       <c r="K46">
-        <v>279.52</v>
+        <v>281.44</v>
       </c>
       <c r="L46">
-        <v>835.52</v>
+        <v>819.76</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2588,36 +2588,36 @@
         <v>1000</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E47">
         <v>0.8</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G47">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I47">
-        <v>84.56</v>
+        <v>84.76</v>
       </c>
       <c r="J47">
-        <v>0.897997772825745</v>
+        <v>0.97077288796092798</v>
       </c>
       <c r="K47">
-        <v>291.33999999999997</v>
+        <v>266.98</v>
       </c>
       <c r="L47">
-        <v>888.44</v>
+        <v>895.78</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B48">
         <v>1000</v>
@@ -2629,25 +2629,25 @@
         <v>15</v>
       </c>
       <c r="E48">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G48">
         <v>0.2</v>
       </c>
       <c r="I48">
-        <v>84.6</v>
+        <v>84.84</v>
       </c>
       <c r="J48">
-        <v>1.28062484748657</v>
+        <v>0.98711701434024401</v>
       </c>
       <c r="K48">
-        <v>76.28</v>
+        <v>217.86</v>
       </c>
       <c r="L48">
-        <v>446.6</v>
+        <v>821.78</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2664,30 +2664,30 @@
         <v>15</v>
       </c>
       <c r="E49">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G49">
         <v>0.4</v>
       </c>
       <c r="I49">
-        <v>84.6</v>
+        <v>84.84</v>
       </c>
       <c r="J49">
-        <v>0.91651513899116699</v>
+        <v>1.1377170122662299</v>
       </c>
       <c r="K49">
-        <v>144.58000000000001</v>
+        <v>163.88</v>
       </c>
       <c r="L49">
-        <v>417.92</v>
+        <v>409.56</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B50">
         <v>1000</v>
@@ -2696,28 +2696,28 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E50">
         <v>0.7</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G50">
         <v>0.2</v>
       </c>
       <c r="I50">
-        <v>84.6</v>
+        <v>84.88</v>
       </c>
       <c r="J50">
-        <v>0.999999999999999</v>
+        <v>1.21061967603372</v>
       </c>
       <c r="K50">
-        <v>345.78</v>
+        <v>176.48</v>
       </c>
       <c r="L50">
-        <v>857.64</v>
+        <v>429.82</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2737,22 +2737,22 @@
         <v>0.7</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G51">
         <v>0.4</v>
       </c>
       <c r="I51">
-        <v>84.64</v>
+        <v>84.88</v>
       </c>
       <c r="J51">
-        <v>0.93295230317524702</v>
+        <v>1.07032705282077</v>
       </c>
       <c r="K51">
-        <v>159.74</v>
+        <v>152.63999999999999</v>
       </c>
       <c r="L51">
-        <v>465.68</v>
+        <v>434.28</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2766,33 +2766,33 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E52">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G52">
         <v>0.2</v>
       </c>
       <c r="I52">
-        <v>84.68</v>
+        <v>84.92</v>
       </c>
       <c r="J52">
-        <v>0.94741754258616095</v>
+        <v>1.2781236246936301</v>
       </c>
       <c r="K52">
-        <v>144.46</v>
+        <v>87.82</v>
       </c>
       <c r="L52">
-        <v>430.72</v>
+        <v>372.78</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B53">
         <v>1000</v>
@@ -2801,33 +2801,33 @@
         <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E53">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G53">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I53">
-        <v>84.68</v>
+        <v>84.92</v>
       </c>
       <c r="J53">
-        <v>0.94741754258616095</v>
+        <v>0.996794863550168</v>
       </c>
       <c r="K53">
-        <v>143.12</v>
+        <v>168.04</v>
       </c>
       <c r="L53">
-        <v>409.06</v>
+        <v>942.06</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B54">
         <v>1000</v>
@@ -2836,33 +2836,33 @@
         <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E54">
         <v>0.7</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G54">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I54">
-        <v>84.68</v>
+        <v>85</v>
       </c>
       <c r="J54">
-        <v>1.1034491379306901</v>
+        <v>1.21655250605964</v>
       </c>
       <c r="K54">
-        <v>313.83999999999997</v>
+        <v>173.86</v>
       </c>
       <c r="L54">
-        <v>840.48</v>
+        <v>436.14</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B55">
         <v>1000</v>
@@ -2871,28 +2871,28 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E55">
         <v>0.8</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G55">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I55">
-        <v>84.68</v>
+        <v>85</v>
       </c>
       <c r="J55">
-        <v>1.1034491379306901</v>
+        <v>1.21655250605964</v>
       </c>
       <c r="K55">
-        <v>327.14</v>
+        <v>181.36</v>
       </c>
       <c r="L55">
-        <v>850.28</v>
+        <v>444.88</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -2912,27 +2912,27 @@
         <v>0.7</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G56">
         <v>0.2</v>
       </c>
       <c r="I56">
-        <v>84.72</v>
+        <v>85.04</v>
       </c>
       <c r="J56">
-        <v>1.24963994814506</v>
+        <v>1.0762899237658901</v>
       </c>
       <c r="K56">
-        <v>147.32</v>
+        <v>142.38</v>
       </c>
       <c r="L56">
-        <v>420.82</v>
+        <v>409.02</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B57">
         <v>1000</v>
@@ -2941,33 +2941,33 @@
         <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E57">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G57">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I57">
-        <v>84.72</v>
+        <v>85.04</v>
       </c>
       <c r="J57">
-        <v>1.04</v>
+        <v>1.0762899237658901</v>
       </c>
       <c r="K57">
-        <v>281.44</v>
+        <v>143.78</v>
       </c>
       <c r="L57">
-        <v>819.76</v>
+        <v>457.44</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B58">
         <v>1000</v>
@@ -2976,68 +2976,68 @@
         <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E58">
         <v>0.8</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G58">
         <v>0.4</v>
       </c>
       <c r="I58">
-        <v>84.72</v>
+        <v>85.08</v>
       </c>
       <c r="J58">
-        <v>0.96</v>
+        <v>1.1461239025515499</v>
       </c>
       <c r="K58">
-        <v>311.95999999999998</v>
+        <v>166.84</v>
       </c>
       <c r="L58">
-        <v>840.28</v>
+        <v>412.24</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B59">
         <v>1000</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
         <v>15</v>
       </c>
       <c r="E59">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G59">
         <v>0.2</v>
       </c>
       <c r="I59">
-        <v>84.72</v>
+        <v>85.08</v>
       </c>
       <c r="J59">
-        <v>1.04</v>
+        <v>1.0740577265678</v>
       </c>
       <c r="K59">
-        <v>220.68</v>
+        <v>135.24</v>
       </c>
       <c r="L59">
-        <v>832.76</v>
+        <v>410.36</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B60">
         <v>1000</v>
@@ -3046,33 +3046,33 @@
         <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E60">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G60">
         <v>0.2</v>
       </c>
       <c r="I60">
-        <v>84.76</v>
+        <v>85.08</v>
       </c>
       <c r="J60">
-        <v>1.19264412127004</v>
+        <v>1.0740577265678</v>
       </c>
       <c r="K60">
-        <v>314.26</v>
+        <v>181.36</v>
       </c>
       <c r="L60">
-        <v>826.58</v>
+        <v>454.44</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B61">
         <v>1000</v>
@@ -3081,138 +3081,138 @@
         <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E61">
         <v>0.8</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G61">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I61">
-        <v>84.76</v>
+        <v>85.12</v>
       </c>
       <c r="J61">
-        <v>0.97077288796092798</v>
+        <v>1.21061967603372</v>
       </c>
       <c r="K61">
-        <v>281.7</v>
+        <v>165.72</v>
       </c>
       <c r="L61">
-        <v>888.32</v>
+        <v>415.26</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B62">
         <v>1000</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E62">
         <v>0.7</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G62">
         <v>0.4</v>
       </c>
       <c r="I62">
-        <v>84.76</v>
+        <v>85.12</v>
       </c>
       <c r="J62">
-        <v>1.19264412127004</v>
+        <v>1.2749901960407299</v>
       </c>
       <c r="K62">
-        <v>116.14</v>
+        <v>150.16</v>
       </c>
       <c r="L62">
-        <v>830.42</v>
+        <v>440.36</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B63">
         <v>1000</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E63">
         <v>0.8</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G63">
         <v>0.4</v>
       </c>
       <c r="I63">
-        <v>84.76</v>
+        <v>85.16</v>
       </c>
       <c r="J63">
-        <v>0.97077288796092798</v>
+        <v>0.98711701434024401</v>
       </c>
       <c r="K63">
-        <v>100.4</v>
+        <v>141.63999999999999</v>
       </c>
       <c r="L63">
-        <v>882</v>
+        <v>406.84</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B64">
         <v>1000</v>
       </c>
       <c r="C64" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E64">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G64">
         <v>0.4</v>
       </c>
       <c r="I64">
-        <v>84.76</v>
+        <v>85.16</v>
       </c>
       <c r="J64">
-        <v>1.0499523798725301</v>
+        <v>0.98711701434024401</v>
       </c>
       <c r="K64">
-        <v>103.86</v>
+        <v>53.34</v>
       </c>
       <c r="L64">
-        <v>830.66</v>
+        <v>362.9</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B65">
         <v>1000</v>
@@ -3221,33 +3221,33 @@
         <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E65">
         <v>0.8</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G65">
         <v>0.2</v>
       </c>
       <c r="I65">
-        <v>84.8</v>
+        <v>85.16</v>
       </c>
       <c r="J65">
-        <v>1.2</v>
+        <v>1.2059850745345</v>
       </c>
       <c r="K65">
-        <v>124.36</v>
+        <v>193.22</v>
       </c>
       <c r="L65">
-        <v>838.74</v>
+        <v>444.34</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B66">
         <v>1000</v>
@@ -3256,28 +3256,28 @@
         <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E66">
         <v>0.7</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G66">
         <v>0.4</v>
       </c>
       <c r="I66">
-        <v>84.8</v>
+        <v>85.2</v>
       </c>
       <c r="J66">
         <v>0.97979589711327097</v>
       </c>
       <c r="K66">
-        <v>293</v>
+        <v>61.4</v>
       </c>
       <c r="L66">
-        <v>885.08</v>
+        <v>415.54</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3288,36 +3288,36 @@
         <v>1000</v>
       </c>
       <c r="C67" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E67">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G67">
         <v>0.4</v>
       </c>
       <c r="I67">
-        <v>84.8</v>
+        <v>85.24</v>
       </c>
       <c r="J67">
-        <v>1.0583005244258299</v>
+        <v>1.2579348154813099</v>
       </c>
       <c r="K67">
-        <v>120.56</v>
+        <v>113.32</v>
       </c>
       <c r="L67">
-        <v>879.42</v>
+        <v>708.98</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B68">
         <v>1000</v>
@@ -3326,33 +3326,33 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E68">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G68">
         <v>0.4</v>
       </c>
       <c r="I68">
-        <v>84.84</v>
+        <v>85.36</v>
       </c>
       <c r="J68">
-        <v>0.98711701434024401</v>
+        <v>1.2924395537122799</v>
       </c>
       <c r="K68">
-        <v>164.06</v>
+        <v>97.04</v>
       </c>
       <c r="L68">
-        <v>448.42</v>
+        <v>832.08</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B69">
         <v>1000</v>
@@ -3361,28 +3361,28 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E69">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G69">
         <v>0.4</v>
       </c>
       <c r="I69">
-        <v>84.84</v>
+        <v>85.36</v>
       </c>
       <c r="J69">
-        <v>1.1377170122662299</v>
+        <v>1.1620671237067099</v>
       </c>
       <c r="K69">
-        <v>163.88</v>
+        <v>119.08</v>
       </c>
       <c r="L69">
-        <v>409.56</v>
+        <v>884.74</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -3396,28 +3396,28 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E70">
         <v>0.8</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G70">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I70">
-        <v>84.84</v>
+        <v>85.4</v>
       </c>
       <c r="J70">
-        <v>0.98711701434024401</v>
+        <v>1.0770329614269001</v>
       </c>
       <c r="K70">
-        <v>217.86</v>
+        <v>60.9</v>
       </c>
       <c r="L70">
-        <v>821.78</v>
+        <v>893.62</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3428,31 +3428,31 @@
         <v>1000</v>
       </c>
       <c r="C71" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E71">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G71">
         <v>0.4</v>
       </c>
       <c r="I71">
-        <v>84.88</v>
+        <v>85.44</v>
       </c>
       <c r="J71">
-        <v>1.3948476619330099</v>
+        <v>1.1341957503006199</v>
       </c>
       <c r="K71">
-        <v>92.88</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="L71">
-        <v>440.84</v>
+        <v>458.22</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -3463,31 +3463,31 @@
         <v>1000</v>
       </c>
       <c r="C72" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E72">
         <v>0.7</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G72">
         <v>0.4</v>
       </c>
       <c r="I72">
-        <v>84.88</v>
+        <v>85.44</v>
       </c>
       <c r="J72">
-        <v>1.1426285485668499</v>
+        <v>0.98305645819555998</v>
       </c>
       <c r="K72">
-        <v>136.46</v>
+        <v>63.28</v>
       </c>
       <c r="L72">
-        <v>875.5</v>
+        <v>874.72</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -3501,63 +3501,63 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E73">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G73">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I73">
-        <v>84.92</v>
+        <v>85.52</v>
       </c>
       <c r="J73">
-        <v>1.3392535234226499</v>
+        <v>0.85416626016250397</v>
       </c>
       <c r="K73">
-        <v>126.06</v>
+        <v>55.26</v>
       </c>
       <c r="L73">
-        <v>806.46</v>
+        <v>915.08</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B74">
         <v>1000</v>
       </c>
       <c r="C74" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E74">
         <v>0.7</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G74">
         <v>0.4</v>
       </c>
       <c r="I74">
-        <v>84.96</v>
+        <v>85.56</v>
       </c>
       <c r="J74">
-        <v>0.99919967974374402</v>
+        <v>1.2191800523302501</v>
       </c>
       <c r="K74">
-        <v>119.54</v>
+        <v>155.08000000000001</v>
       </c>
       <c r="L74">
-        <v>881.1</v>
+        <v>410.7</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -3568,31 +3568,31 @@
         <v>1000</v>
       </c>
       <c r="C75" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D75" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E75">
         <v>0.7</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G75">
         <v>0.4</v>
       </c>
       <c r="I75">
-        <v>84.96</v>
+        <v>85.56</v>
       </c>
       <c r="J75">
-        <v>1.0762899237658901</v>
+        <v>1.7568153004798199</v>
       </c>
       <c r="K75">
-        <v>144.38</v>
+        <v>42.36</v>
       </c>
       <c r="L75">
-        <v>871.52</v>
+        <v>796.42</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -3603,66 +3603,66 @@
         <v>1000</v>
       </c>
       <c r="C76" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E76">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F76" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G76">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I76">
-        <v>84.96</v>
+        <v>85.56</v>
       </c>
       <c r="J76">
-        <v>1.5615377036754501</v>
+        <v>0.82849260708831796</v>
       </c>
       <c r="K76">
-        <v>202.28</v>
+        <v>72.56</v>
       </c>
       <c r="L76">
-        <v>832.8</v>
+        <v>878.32</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B77">
         <v>1000</v>
       </c>
       <c r="C77" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E77">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G77">
         <v>0.4</v>
       </c>
       <c r="I77">
-        <v>84.96</v>
+        <v>85.6</v>
       </c>
       <c r="J77">
-        <v>1.0762899237658901</v>
+        <v>0.89442719099991497</v>
       </c>
       <c r="K77">
-        <v>151.58000000000001</v>
+        <v>29.58</v>
       </c>
       <c r="L77">
-        <v>829.62</v>
+        <v>352.56</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -3673,31 +3673,31 @@
         <v>1000</v>
       </c>
       <c r="C78" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E78">
         <v>0.7</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G78">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I78">
-        <v>85</v>
+        <v>85.64</v>
       </c>
       <c r="J78">
-        <v>1</v>
+        <v>1.1092339699089599</v>
       </c>
       <c r="K78">
-        <v>215.36</v>
+        <v>29.58</v>
       </c>
       <c r="L78">
-        <v>829.38</v>
+        <v>813.5</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -3708,31 +3708,31 @@
         <v>1000</v>
       </c>
       <c r="C79" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E79">
         <v>0.8</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G79">
         <v>0.4</v>
       </c>
       <c r="I79">
-        <v>85</v>
+        <v>85.64</v>
       </c>
       <c r="J79">
-        <v>1.0770329614269001</v>
+        <v>1.7749366185866999</v>
       </c>
       <c r="K79">
-        <v>183.2</v>
+        <v>25.84</v>
       </c>
       <c r="L79">
-        <v>869.32</v>
+        <v>815.84</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -3743,66 +3743,66 @@
         <v>1000</v>
       </c>
       <c r="C80" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E80">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G80">
         <v>0.2</v>
       </c>
       <c r="I80">
-        <v>85</v>
+        <v>85.68</v>
       </c>
       <c r="J80">
-        <v>1.0770329614269001</v>
+        <v>1.93328735577513</v>
       </c>
       <c r="K80">
-        <v>109.88</v>
+        <v>67.459999999999994</v>
       </c>
       <c r="L80">
-        <v>822.52</v>
+        <v>796.96</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B81">
         <v>1000</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E81">
         <v>0.8</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G81">
         <v>0.4</v>
       </c>
       <c r="I81">
-        <v>85.04</v>
+        <v>85.68</v>
       </c>
       <c r="J81">
-        <v>1.14821600755258</v>
+        <v>2.1301643129110901</v>
       </c>
       <c r="K81">
-        <v>138.54</v>
+        <v>42.94</v>
       </c>
       <c r="L81">
-        <v>425.54</v>
+        <v>800.4</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -3816,10 +3816,10 @@
         <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E82">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F82" t="s">
         <v>11</v>
@@ -3828,21 +3828,21 @@
         <v>0.2</v>
       </c>
       <c r="I82">
-        <v>85.04</v>
+        <v>85.72</v>
       </c>
       <c r="J82">
-        <v>1.0762899237658901</v>
+        <v>1.87659265691838</v>
       </c>
       <c r="K82">
-        <v>142.38</v>
+        <v>68.48</v>
       </c>
       <c r="L82">
-        <v>409.02</v>
+        <v>401.8</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B83">
         <v>1000</v>
@@ -3851,98 +3851,98 @@
         <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E83">
         <v>0.7</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G83">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I83">
-        <v>85.04</v>
+        <v>85.72</v>
       </c>
       <c r="J83">
-        <v>1.2158947322856499</v>
+        <v>1.1320777358467899</v>
       </c>
       <c r="K83">
-        <v>121.86</v>
+        <v>45.82</v>
       </c>
       <c r="L83">
-        <v>835.76</v>
+        <v>351.96</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B84">
         <v>1000</v>
       </c>
       <c r="C84" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E84">
         <v>0.8</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G84">
         <v>0.4</v>
       </c>
       <c r="I84">
-        <v>85.04</v>
+        <v>85.76</v>
       </c>
       <c r="J84">
-        <v>1.2158947322856499</v>
+        <v>1.7269626515938299</v>
       </c>
       <c r="K84">
-        <v>147</v>
+        <v>55.08</v>
       </c>
       <c r="L84">
-        <v>826.42</v>
+        <v>450.2</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B85">
         <v>1000</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D85" t="s">
         <v>15</v>
       </c>
       <c r="E85">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G85">
         <v>0.4</v>
       </c>
       <c r="I85">
-        <v>85.08</v>
+        <v>85.84</v>
       </c>
       <c r="J85">
-        <v>1.1461239025515499</v>
+        <v>1.7816845961056</v>
       </c>
       <c r="K85">
-        <v>149.88</v>
+        <v>77.48</v>
       </c>
       <c r="L85">
-        <v>426.92</v>
+        <v>796.16</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -3953,10 +3953,10 @@
         <v>1000</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E86">
         <v>0.7</v>
@@ -3965,24 +3965,24 @@
         <v>12</v>
       </c>
       <c r="G86">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I86">
-        <v>85.08</v>
+        <v>85.88</v>
       </c>
       <c r="J86">
-        <v>1.0740577265678</v>
+        <v>1.97625909232569</v>
       </c>
       <c r="K86">
-        <v>135.24</v>
+        <v>39.08</v>
       </c>
       <c r="L86">
-        <v>410.36</v>
+        <v>398.94</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B87">
         <v>1000</v>
@@ -3991,63 +3991,63 @@
         <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E87">
         <v>0.8</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G87">
         <v>0.4</v>
       </c>
       <c r="I87">
-        <v>85.08</v>
+        <v>85.88</v>
       </c>
       <c r="J87">
-        <v>1.1461239025515499</v>
+        <v>1.22702893201423</v>
       </c>
       <c r="K87">
-        <v>166.84</v>
+        <v>32.479999999999997</v>
       </c>
       <c r="L87">
-        <v>412.24</v>
+        <v>810.02</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B88">
         <v>1000</v>
       </c>
       <c r="C88" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D88" t="s">
         <v>15</v>
       </c>
       <c r="E88">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G88">
         <v>0.4</v>
       </c>
       <c r="I88">
-        <v>85.08</v>
+        <v>85.88</v>
       </c>
       <c r="J88">
-        <v>1.2781236246936301</v>
+        <v>1.6690116836019999</v>
       </c>
       <c r="K88">
-        <v>109.74</v>
+        <v>65</v>
       </c>
       <c r="L88">
-        <v>443.34</v>
+        <v>788.98</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -4058,42 +4058,42 @@
         <v>1000</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E89">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G89">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I89">
-        <v>85.08</v>
+        <v>85.88</v>
       </c>
       <c r="J89">
-        <v>1.2781236246936301</v>
+        <v>1.97625909232569</v>
       </c>
       <c r="K89">
-        <v>164.7</v>
+        <v>56.86</v>
       </c>
       <c r="L89">
-        <v>810.86</v>
+        <v>697.54</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B90">
         <v>1000</v>
       </c>
       <c r="C90" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
         <v>10</v>
@@ -4102,22 +4102,22 @@
         <v>0.8</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G90">
         <v>0.4</v>
       </c>
       <c r="I90">
-        <v>85.08</v>
+        <v>85.92</v>
       </c>
       <c r="J90">
-        <v>1.1461239025515499</v>
+        <v>1.19733036376766</v>
       </c>
       <c r="K90">
-        <v>142.69999999999999</v>
+        <v>27.94</v>
       </c>
       <c r="L90">
-        <v>886.34</v>
+        <v>467.6</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -4128,7 +4128,7 @@
         <v>1000</v>
       </c>
       <c r="C91" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
         <v>10</v>
@@ -4137,27 +4137,27 @@
         <v>0.8</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G91">
         <v>0.2</v>
       </c>
       <c r="I91">
-        <v>85.08</v>
+        <v>85.92</v>
       </c>
       <c r="J91">
-        <v>1.2139192724394801</v>
+        <v>1.4945233353815499</v>
       </c>
       <c r="K91">
-        <v>137.18</v>
+        <v>63.48</v>
       </c>
       <c r="L91">
-        <v>818.14</v>
+        <v>866.06</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B92">
         <v>1000</v>
@@ -4166,63 +4166,63 @@
         <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E92">
         <v>0.8</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G92">
         <v>0.2</v>
       </c>
       <c r="I92">
-        <v>85.12</v>
+        <v>85.92</v>
       </c>
       <c r="J92">
-        <v>1.21061967603372</v>
+        <v>1.59799874843505</v>
       </c>
       <c r="K92">
-        <v>165.72</v>
+        <v>35.06</v>
       </c>
       <c r="L92">
-        <v>415.26</v>
+        <v>859.58</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B93">
         <v>1000</v>
       </c>
       <c r="C93" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E93">
         <v>0.8</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G93">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I93">
-        <v>85.12</v>
+        <v>85.92</v>
       </c>
       <c r="J93">
-        <v>1.55743378671454</v>
+        <v>2.0769207977195401</v>
       </c>
       <c r="K93">
-        <v>68.959999999999994</v>
+        <v>125.84</v>
       </c>
       <c r="L93">
-        <v>441.76</v>
+        <v>891.58</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -4233,7 +4233,7 @@
         <v>1000</v>
       </c>
       <c r="C94" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
         <v>10</v>
@@ -4242,57 +4242,57 @@
         <v>0.8</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G94">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I94">
-        <v>85.12</v>
+        <v>85.96</v>
       </c>
       <c r="J94">
-        <v>1.21061967603372</v>
+        <v>0.74726166769077595</v>
       </c>
       <c r="K94">
-        <v>112.68</v>
+        <v>28.26</v>
       </c>
       <c r="L94">
-        <v>836.34</v>
+        <v>819.26</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B95">
         <v>1000</v>
       </c>
       <c r="C95" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D95" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E95">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G95">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I95">
-        <v>85.12</v>
+        <v>85.96</v>
       </c>
       <c r="J95">
-        <v>1.50519101777814</v>
+        <v>2.0195048898182901</v>
       </c>
       <c r="K95">
-        <v>236.5</v>
+        <v>11.28</v>
       </c>
       <c r="L95">
-        <v>800.92</v>
+        <v>399.56</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -4303,48 +4303,48 @@
         <v>1000</v>
       </c>
       <c r="C96" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E96">
         <v>0.7</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G96">
         <v>0.2</v>
       </c>
       <c r="I96">
-        <v>85.12</v>
+        <v>85.96</v>
       </c>
       <c r="J96">
-        <v>1.50519101777814</v>
+        <v>1.8106352476409999</v>
       </c>
       <c r="K96">
-        <v>225.12</v>
+        <v>28.82</v>
       </c>
       <c r="L96">
-        <v>790.92</v>
+        <v>799.26</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B97">
         <v>1000</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D97" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E97">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F97" t="s">
         <v>12</v>
@@ -4353,16 +4353,16 @@
         <v>0.4</v>
       </c>
       <c r="I97">
-        <v>85.16</v>
+        <v>85.96</v>
       </c>
       <c r="J97">
-        <v>0.98711701434024401</v>
+        <v>1.8106352476409999</v>
       </c>
       <c r="K97">
-        <v>141.63999999999999</v>
+        <v>15.42</v>
       </c>
       <c r="L97">
-        <v>406.84</v>
+        <v>810</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -4373,101 +4373,101 @@
         <v>1000</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E98">
         <v>0.8</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G98">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I98">
-        <v>85.16</v>
+        <v>85.96</v>
       </c>
       <c r="J98">
-        <v>1.1377170122662299</v>
+        <v>2.2446380554557099</v>
       </c>
       <c r="K98">
-        <v>170.52</v>
+        <v>61.8</v>
       </c>
       <c r="L98">
-        <v>417.98</v>
+        <v>437.4</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B99">
         <v>1000</v>
       </c>
       <c r="C99" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E99">
         <v>0.7</v>
       </c>
       <c r="F99" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G99">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I99">
-        <v>85.16</v>
+        <v>86</v>
       </c>
       <c r="J99">
-        <v>1.39082709205709</v>
+        <v>1.49666295470957</v>
       </c>
       <c r="K99">
-        <v>134.19999999999999</v>
+        <v>14.02</v>
       </c>
       <c r="L99">
-        <v>433.64</v>
+        <v>795.28</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B100">
         <v>1000</v>
       </c>
       <c r="C100" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E100">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G100">
         <v>0.4</v>
       </c>
       <c r="I100">
-        <v>85.16</v>
+        <v>86</v>
       </c>
       <c r="J100">
-        <v>1.0650821564555399</v>
+        <v>1.13137084989847</v>
       </c>
       <c r="K100">
-        <v>105.86</v>
+        <v>62.96</v>
       </c>
       <c r="L100">
-        <v>442.28</v>
+        <v>820.1</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -4478,31 +4478,31 @@
         <v>1000</v>
       </c>
       <c r="C101" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E101">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G101">
         <v>0.4</v>
       </c>
       <c r="I101">
-        <v>85.16</v>
+        <v>86</v>
       </c>
       <c r="J101">
-        <v>1.0650821564555399</v>
+        <v>0.97979589711327097</v>
       </c>
       <c r="K101">
-        <v>185.2</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="L101">
-        <v>827.7</v>
+        <v>828</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -4513,42 +4513,42 @@
         <v>1000</v>
       </c>
       <c r="C102" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E102">
         <v>0.7</v>
       </c>
       <c r="F102" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G102">
         <v>0.2</v>
       </c>
       <c r="I102">
-        <v>85.2</v>
+        <v>86</v>
       </c>
       <c r="J102">
-        <v>1.69705627484771</v>
+        <v>1.26491106406735</v>
       </c>
       <c r="K102">
-        <v>177.46</v>
+        <v>37.94</v>
       </c>
       <c r="L102">
-        <v>806.92</v>
+        <v>858.3</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B103">
         <v>1000</v>
       </c>
       <c r="C103" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D103" t="s">
         <v>10</v>
@@ -4557,22 +4557,22 @@
         <v>0.7</v>
       </c>
       <c r="F103" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G103">
         <v>0.4</v>
       </c>
       <c r="I103">
-        <v>85.24</v>
+        <v>86</v>
       </c>
       <c r="J103">
-        <v>1.4907716122867301</v>
+        <v>1.69705627484771</v>
       </c>
       <c r="K103">
-        <v>81.92</v>
+        <v>49.94</v>
       </c>
       <c r="L103">
-        <v>441.58</v>
+        <v>709.28</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -4583,7 +4583,7 @@
         <v>1000</v>
       </c>
       <c r="C104" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
         <v>10</v>
@@ -4592,22 +4592,22 @@
         <v>0.7</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G104">
         <v>0.4</v>
       </c>
       <c r="I104">
-        <v>85.24</v>
+        <v>86.04</v>
       </c>
       <c r="J104">
-        <v>1.5435025105259701</v>
+        <v>1.23223374405994</v>
       </c>
       <c r="K104">
-        <v>82.62</v>
+        <v>37.76</v>
       </c>
       <c r="L104">
-        <v>416.88</v>
+        <v>368.68</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -4618,31 +4618,31 @@
         <v>1000</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E105">
         <v>0.7</v>
       </c>
       <c r="F105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G105">
         <v>0.2</v>
       </c>
       <c r="I105">
-        <v>85.24</v>
+        <v>86.04</v>
       </c>
       <c r="J105">
-        <v>1.0499523798725301</v>
+        <v>2.27999999999999</v>
       </c>
       <c r="K105">
-        <v>156.30000000000001</v>
+        <v>21</v>
       </c>
       <c r="L105">
-        <v>842.06</v>
+        <v>788</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -4653,36 +4653,36 @@
         <v>1000</v>
       </c>
       <c r="C106" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E106">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G106">
         <v>0.2</v>
       </c>
       <c r="I106">
-        <v>85.24</v>
+        <v>86.04</v>
       </c>
       <c r="J106">
-        <v>1.37927517196533</v>
+        <v>1.8106352476409999</v>
       </c>
       <c r="K106">
-        <v>74.459999999999994</v>
+        <v>51.06</v>
       </c>
       <c r="L106">
-        <v>827.88</v>
+        <v>781.8</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B107">
         <v>1000</v>
@@ -4691,133 +4691,133 @@
         <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E107">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G107">
         <v>0.2</v>
       </c>
       <c r="I107">
-        <v>85.28</v>
+        <v>86.04</v>
       </c>
       <c r="J107">
-        <v>1.1838918869558901</v>
+        <v>1.9386593305684201</v>
       </c>
       <c r="K107">
-        <v>125.5</v>
+        <v>32.82</v>
       </c>
       <c r="L107">
-        <v>425.66</v>
+        <v>782.96</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B108">
         <v>1000</v>
       </c>
       <c r="C108" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E108">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F108" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G108">
         <v>0.2</v>
       </c>
       <c r="I108">
-        <v>85.28</v>
+        <v>86.04</v>
       </c>
       <c r="J108">
-        <v>1.63755915923669</v>
+        <v>1.8969449122206901</v>
       </c>
       <c r="K108">
-        <v>101.26</v>
+        <v>39.74</v>
       </c>
       <c r="L108">
-        <v>419.82</v>
+        <v>870.8</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B109">
         <v>1000</v>
       </c>
       <c r="C109" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D109" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E109">
         <v>0.8</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G109">
         <v>0.2</v>
       </c>
       <c r="I109">
-        <v>85.28</v>
+        <v>86.04</v>
       </c>
       <c r="J109">
-        <v>1.63755915923669</v>
+        <v>1.97949488506537</v>
       </c>
       <c r="K109">
-        <v>157.13999999999999</v>
+        <v>51.08</v>
       </c>
       <c r="L109">
-        <v>426.48</v>
+        <v>695.9</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B110">
         <v>1000</v>
       </c>
       <c r="C110" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D110" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E110">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F110" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G110">
         <v>0.4</v>
       </c>
       <c r="I110">
-        <v>85.28</v>
+        <v>86.04</v>
       </c>
       <c r="J110">
-        <v>1.4288456879593401</v>
+        <v>1.76589920437152</v>
       </c>
       <c r="K110">
-        <v>121.02</v>
+        <v>34.020000000000003</v>
       </c>
       <c r="L110">
-        <v>440.72</v>
+        <v>705.88</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -4828,31 +4828,31 @@
         <v>1000</v>
       </c>
       <c r="C111" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E111">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F111" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G111">
         <v>0.4</v>
       </c>
       <c r="I111">
-        <v>85.28</v>
+        <v>86.04</v>
       </c>
       <c r="J111">
-        <v>0.96</v>
+        <v>2.2087100307645602</v>
       </c>
       <c r="K111">
-        <v>122.92</v>
+        <v>56.96</v>
       </c>
       <c r="L111">
-        <v>832.86</v>
+        <v>690.96</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -4863,66 +4863,66 @@
         <v>1000</v>
       </c>
       <c r="C112" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D112" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E112">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F112" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G112">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I112">
-        <v>85.28</v>
+        <v>86.04</v>
       </c>
       <c r="J112">
-        <v>1.68570460045643</v>
+        <v>2.1721878371816699</v>
       </c>
       <c r="K112">
-        <v>145.97999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="L112">
-        <v>837.98</v>
+        <v>704.74</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B113">
         <v>1000</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E113">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F113" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G113">
         <v>0.4</v>
       </c>
       <c r="I113">
-        <v>85.32</v>
+        <v>86.04</v>
       </c>
       <c r="J113">
-        <v>1.17371206008969</v>
+        <v>2.0195048898182901</v>
       </c>
       <c r="K113">
-        <v>170.24</v>
+        <v>48.9</v>
       </c>
       <c r="L113">
-        <v>465.86</v>
+        <v>708.4</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
@@ -4933,31 +4933,31 @@
         <v>1000</v>
       </c>
       <c r="C114" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D114" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E114">
         <v>0.8</v>
       </c>
       <c r="F114" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G114">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I114">
-        <v>85.32</v>
+        <v>86.04</v>
       </c>
       <c r="J114">
-        <v>1.5289211882893099</v>
+        <v>1.1655041827466699</v>
       </c>
       <c r="K114">
-        <v>192.96</v>
+        <v>43.52</v>
       </c>
       <c r="L114">
-        <v>799.44</v>
+        <v>684.06</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -4971,28 +4971,28 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E115">
         <v>0.7</v>
       </c>
       <c r="F115" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G115">
         <v>0.2</v>
       </c>
       <c r="I115">
-        <v>85.36</v>
+        <v>86.08</v>
       </c>
       <c r="J115">
-        <v>1.2924395537122799</v>
+        <v>2.1525798475317899</v>
       </c>
       <c r="K115">
-        <v>165.84</v>
+        <v>52</v>
       </c>
       <c r="L115">
-        <v>412.42</v>
+        <v>348.06</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -5006,28 +5006,28 @@
         <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E116">
         <v>0.7</v>
       </c>
       <c r="F116" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G116">
         <v>0.4</v>
       </c>
       <c r="I116">
-        <v>85.36</v>
+        <v>86.08</v>
       </c>
       <c r="J116">
-        <v>1.35292276202302</v>
+        <v>1.8312837027615301</v>
       </c>
       <c r="K116">
-        <v>155.28</v>
+        <v>54.1</v>
       </c>
       <c r="L116">
-        <v>421.7</v>
+        <v>390.54</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -5041,63 +5041,63 @@
         <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E117">
         <v>0.8</v>
       </c>
       <c r="F117" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G117">
         <v>0.4</v>
       </c>
       <c r="I117">
-        <v>85.36</v>
+        <v>86.12</v>
       </c>
       <c r="J117">
-        <v>1.4664242223858599</v>
+        <v>1.22702893201423</v>
       </c>
       <c r="K117">
-        <v>180.98</v>
+        <v>19.48</v>
       </c>
       <c r="L117">
-        <v>417.16</v>
+        <v>455.82</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B118">
         <v>1000</v>
       </c>
       <c r="C118" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E118">
         <v>0.7</v>
       </c>
       <c r="F118" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G118">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I118">
-        <v>85.36</v>
+        <v>86.12</v>
       </c>
       <c r="J118">
-        <v>1.6704490414256801</v>
+        <v>1.57022291411124</v>
       </c>
       <c r="K118">
-        <v>78.040000000000006</v>
+        <v>50.64</v>
       </c>
       <c r="L118">
-        <v>412</v>
+        <v>852.7</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -5108,66 +5108,66 @@
         <v>1000</v>
       </c>
       <c r="C119" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D119" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E119">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F119" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G119">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I119">
-        <v>85.36</v>
+        <v>86.12</v>
       </c>
       <c r="J119">
-        <v>1.6704490414256801</v>
+        <v>2.1320412753978202</v>
       </c>
       <c r="K119">
-        <v>200.04</v>
+        <v>61.38</v>
       </c>
       <c r="L119">
-        <v>821.22</v>
+        <v>695.02</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B120">
         <v>1000</v>
       </c>
       <c r="C120" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D120" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E120">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F120" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G120">
         <v>0.4</v>
       </c>
       <c r="I120">
-        <v>85.4</v>
+        <v>86.16</v>
       </c>
       <c r="J120">
-        <v>1.61245154965971</v>
+        <v>1.64146276229465</v>
       </c>
       <c r="K120">
-        <v>157.69999999999999</v>
+        <v>30.72</v>
       </c>
       <c r="L120">
-        <v>413.36</v>
+        <v>805.34</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
@@ -5178,31 +5178,31 @@
         <v>1000</v>
       </c>
       <c r="C121" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E121">
         <v>0.7</v>
       </c>
       <c r="F121" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G121">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I121">
-        <v>85.4</v>
+        <v>86.16</v>
       </c>
       <c r="J121">
-        <v>1.4</v>
+        <v>2.1481154531355999</v>
       </c>
       <c r="K121">
-        <v>161.02000000000001</v>
+        <v>80.34</v>
       </c>
       <c r="L121">
-        <v>804.98</v>
+        <v>704.64</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -5213,36 +5213,36 @@
         <v>1000</v>
       </c>
       <c r="C122" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
         <v>10</v>
       </c>
       <c r="E122">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F122" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G122">
         <v>0.4</v>
       </c>
       <c r="I122">
-        <v>85.4</v>
+        <v>86.2</v>
       </c>
       <c r="J122">
-        <v>1.28062484748656</v>
+        <v>0.6</v>
       </c>
       <c r="K122">
-        <v>105.98</v>
+        <v>23.82</v>
       </c>
       <c r="L122">
-        <v>836.12</v>
+        <v>822.02</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B123">
         <v>1000</v>
@@ -5251,168 +5251,168 @@
         <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E123">
         <v>0.8</v>
       </c>
       <c r="F123" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G123">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I123">
-        <v>85.44</v>
+        <v>86.2</v>
       </c>
       <c r="J123">
-        <v>1.32905981806689</v>
+        <v>1.84390889145857</v>
       </c>
       <c r="K123">
-        <v>190.56</v>
+        <v>22.42</v>
       </c>
       <c r="L123">
-        <v>444.92</v>
+        <v>802.6</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B124">
         <v>1000</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D124" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E124">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F124" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G124">
         <v>0.2</v>
       </c>
       <c r="I124">
-        <v>85.48</v>
+        <v>86.2</v>
       </c>
       <c r="J124">
-        <v>1.7348198753761099</v>
+        <v>2.0099751242241699</v>
       </c>
       <c r="K124">
-        <v>113.3</v>
+        <v>31.26</v>
       </c>
       <c r="L124">
-        <v>408.26</v>
+        <v>797.18</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B125">
         <v>1000</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D125" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E125">
         <v>0.7</v>
       </c>
       <c r="F125" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G125">
         <v>0.4</v>
       </c>
       <c r="I125">
-        <v>85.48</v>
+        <v>86.2</v>
       </c>
       <c r="J125">
-        <v>1.4864723340849599</v>
+        <v>1.9697715603592201</v>
       </c>
       <c r="K125">
-        <v>156.32</v>
+        <v>57.98</v>
       </c>
       <c r="L125">
-        <v>442.4</v>
+        <v>721.62</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B126">
         <v>1000</v>
       </c>
       <c r="C126" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D126" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E126">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F126" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G126">
         <v>0.4</v>
       </c>
       <c r="I126">
-        <v>85.48</v>
+        <v>86.2</v>
       </c>
       <c r="J126">
-        <v>1.6880758276807299</v>
+        <v>2.0880613017820999</v>
       </c>
       <c r="K126">
-        <v>85.32</v>
+        <v>95.28</v>
       </c>
       <c r="L126">
-        <v>421.1</v>
+        <v>695.92</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B127">
         <v>1000</v>
       </c>
       <c r="C127" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D127" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E127">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F127" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G127">
         <v>0.4</v>
       </c>
       <c r="I127">
-        <v>85.48</v>
+        <v>86.2</v>
       </c>
       <c r="J127">
-        <v>1.18726576637246</v>
+        <v>2.0880613017820999</v>
       </c>
       <c r="K127">
-        <v>158.66</v>
+        <v>71.540000000000006</v>
       </c>
       <c r="L127">
-        <v>417.12</v>
+        <v>682.6</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
@@ -5432,27 +5432,27 @@
         <v>0.8</v>
       </c>
       <c r="F128" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G128">
         <v>0.2</v>
       </c>
       <c r="I128">
-        <v>85.48</v>
+        <v>86.24</v>
       </c>
       <c r="J128">
-        <v>1.25283678106926</v>
+        <v>1.4772948250095499</v>
       </c>
       <c r="K128">
-        <v>139.36000000000001</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="L128">
-        <v>846.5</v>
+        <v>799.76</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B129">
         <v>1000</v>
@@ -5461,77 +5461,77 @@
         <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E129">
         <v>0.8</v>
       </c>
       <c r="F129" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G129">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I129">
-        <v>85.48</v>
+        <v>86.24</v>
       </c>
       <c r="J129">
-        <v>1.18726576637246</v>
+        <v>1.5304901175767101</v>
       </c>
       <c r="K129">
-        <v>150.26</v>
+        <v>25.68</v>
       </c>
       <c r="L129">
-        <v>814.12</v>
+        <v>407.6</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B130">
         <v>1000</v>
       </c>
       <c r="C130" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D130" t="s">
         <v>10</v>
       </c>
       <c r="E130">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F130" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G130">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I130">
-        <v>85.52</v>
+        <v>86.24</v>
       </c>
       <c r="J130">
-        <v>1.5263027222671099</v>
+        <v>2.1029503084951799</v>
       </c>
       <c r="K130">
-        <v>86.9</v>
+        <v>27.5</v>
       </c>
       <c r="L130">
-        <v>442.16</v>
+        <v>818.16</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B131">
         <v>1000</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D131" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E131">
         <v>0.7</v>
@@ -5543,16 +5543,16 @@
         <v>0.4</v>
       </c>
       <c r="I131">
-        <v>85.56</v>
+        <v>86.28</v>
       </c>
       <c r="J131">
-        <v>1.2191800523302501</v>
+        <v>2.11697897958387</v>
       </c>
       <c r="K131">
-        <v>155.08000000000001</v>
+        <v>42.42</v>
       </c>
       <c r="L131">
-        <v>410.7</v>
+        <v>802.7</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
@@ -5563,31 +5563,31 @@
         <v>1000</v>
       </c>
       <c r="C132" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D132" t="s">
         <v>10</v>
       </c>
       <c r="E132">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F132" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G132">
         <v>0.4</v>
       </c>
       <c r="I132">
-        <v>85.56</v>
+        <v>86.28</v>
       </c>
       <c r="J132">
-        <v>1.7568153004798199</v>
+        <v>2.0788458336298001</v>
       </c>
       <c r="K132">
-        <v>84.9</v>
+        <v>36.5</v>
       </c>
       <c r="L132">
-        <v>416</v>
+        <v>449.18</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
@@ -5598,7 +5598,7 @@
         <v>1000</v>
       </c>
       <c r="C133" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D133" t="s">
         <v>15</v>
@@ -5607,57 +5607,57 @@
         <v>0.8</v>
       </c>
       <c r="F133" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G133">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I133">
-        <v>85.56</v>
+        <v>86.28</v>
       </c>
       <c r="J133">
-        <v>1.7568153004798199</v>
+        <v>2.1544372815192299</v>
       </c>
       <c r="K133">
-        <v>149.12</v>
+        <v>36.4</v>
       </c>
       <c r="L133">
-        <v>414.82</v>
+        <v>422.54</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B134">
         <v>1000</v>
       </c>
       <c r="C134" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D134" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E134">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F134" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G134">
         <v>0.2</v>
       </c>
       <c r="I134">
-        <v>85.56</v>
+        <v>86.32</v>
       </c>
       <c r="J134">
-        <v>1.61443488564884</v>
+        <v>2.31032465251098</v>
       </c>
       <c r="K134">
-        <v>143.38</v>
+        <v>19.579999999999998</v>
       </c>
       <c r="L134">
-        <v>420.14</v>
+        <v>792.72</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
@@ -5668,31 +5668,31 @@
         <v>1000</v>
       </c>
       <c r="C135" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E135">
         <v>0.7</v>
       </c>
       <c r="F135" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G135">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I135">
-        <v>85.56</v>
+        <v>86.32</v>
       </c>
       <c r="J135">
-        <v>1.7568153004798199</v>
+        <v>2.0143485299222599</v>
       </c>
       <c r="K135">
-        <v>42.36</v>
+        <v>87.44</v>
       </c>
       <c r="L135">
-        <v>796.42</v>
+        <v>866.8</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
@@ -5703,31 +5703,31 @@
         <v>1000</v>
       </c>
       <c r="C136" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D136" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E136">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F136" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G136">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I136">
-        <v>85.56</v>
+        <v>86.36</v>
       </c>
       <c r="J136">
-        <v>1.51208465371486</v>
+        <v>1.7749366185866999</v>
       </c>
       <c r="K136">
-        <v>282.72000000000003</v>
+        <v>24.94</v>
       </c>
       <c r="L136">
-        <v>801.86</v>
+        <v>706.48</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
@@ -5738,31 +5738,31 @@
         <v>1000</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D137" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E137">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F137" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G137">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I137">
-        <v>85.6</v>
+        <v>86.4</v>
       </c>
       <c r="J137">
-        <v>1.26491106406735</v>
+        <v>2.2627416997969498</v>
       </c>
       <c r="K137">
-        <v>146.6</v>
+        <v>39.46</v>
       </c>
       <c r="L137">
-        <v>426.42</v>
+        <v>398.3</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
@@ -5776,28 +5776,28 @@
         <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E138">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F138" t="s">
         <v>12</v>
       </c>
       <c r="G138">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I138">
-        <v>85.64</v>
+        <v>86.4</v>
       </c>
       <c r="J138">
-        <v>1.1092339699089599</v>
+        <v>1.7888543819998299</v>
       </c>
       <c r="K138">
-        <v>29.58</v>
+        <v>20.48</v>
       </c>
       <c r="L138">
-        <v>813.5</v>
+        <v>810.54</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
@@ -5808,66 +5808,66 @@
         <v>1000</v>
       </c>
       <c r="C139" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D139" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E139">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F139" t="s">
         <v>12</v>
       </c>
       <c r="G139">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I139">
-        <v>85.64</v>
+        <v>86.4</v>
       </c>
       <c r="J139">
-        <v>1.7749366185866999</v>
+        <v>1.95959179422654</v>
       </c>
       <c r="K139">
-        <v>25.84</v>
+        <v>26.8</v>
       </c>
       <c r="L139">
-        <v>815.84</v>
+        <v>799.56</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B140">
         <v>1000</v>
       </c>
       <c r="C140" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D140" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E140">
         <v>0.7</v>
       </c>
       <c r="F140" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G140">
         <v>0.4</v>
       </c>
       <c r="I140">
-        <v>85.68</v>
+        <v>86.4</v>
       </c>
       <c r="J140">
-        <v>1.4620533505997599</v>
+        <v>1.99999999999999</v>
       </c>
       <c r="K140">
-        <v>97.84</v>
+        <v>8.14</v>
       </c>
       <c r="L140">
-        <v>411.32</v>
+        <v>804.52</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
@@ -5878,31 +5878,31 @@
         <v>1000</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D141" t="s">
         <v>10</v>
       </c>
       <c r="E141">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F141" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G141">
         <v>0.2</v>
       </c>
       <c r="I141">
-        <v>85.68</v>
+        <v>86.44</v>
       </c>
       <c r="J141">
-        <v>1.22376468326226</v>
+        <v>1.9303885619221799</v>
       </c>
       <c r="K141">
-        <v>114.94</v>
+        <v>27.1</v>
       </c>
       <c r="L141">
-        <v>816.7</v>
+        <v>786.8</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
@@ -5913,13 +5913,13 @@
         <v>1000</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D142" t="s">
         <v>15</v>
       </c>
       <c r="E142">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F142" t="s">
         <v>11</v>
@@ -5928,16 +5928,16 @@
         <v>0.2</v>
       </c>
       <c r="I142">
-        <v>85.68</v>
+        <v>86.44</v>
       </c>
       <c r="J142">
-        <v>1.93328735577513</v>
+        <v>1.9303885619221799</v>
       </c>
       <c r="K142">
-        <v>67.459999999999994</v>
+        <v>24.38</v>
       </c>
       <c r="L142">
-        <v>796.96</v>
+        <v>787.94</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
@@ -5948,7 +5948,7 @@
         <v>1000</v>
       </c>
       <c r="C143" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D143" t="s">
         <v>15</v>
@@ -5957,22 +5957,22 @@
         <v>0.8</v>
       </c>
       <c r="F143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G143">
         <v>0.4</v>
       </c>
       <c r="I143">
-        <v>85.68</v>
+        <v>86.44</v>
       </c>
       <c r="J143">
-        <v>2.1301643129110901</v>
+        <v>1.40228385143664</v>
       </c>
       <c r="K143">
-        <v>42.94</v>
+        <v>30.48</v>
       </c>
       <c r="L143">
-        <v>800.4</v>
+        <v>789.74</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
@@ -5986,33 +5986,33 @@
         <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E144">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G144">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I144">
-        <v>85.72</v>
+        <v>86.48</v>
       </c>
       <c r="J144">
-        <v>1.87659265691838</v>
+        <v>1.5778466338652799</v>
       </c>
       <c r="K144">
-        <v>68.48</v>
+        <v>36.78</v>
       </c>
       <c r="L144">
-        <v>401.8</v>
+        <v>409.88</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B145">
         <v>1000</v>
@@ -6021,98 +6021,98 @@
         <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E145">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F145" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G145">
         <v>0.2</v>
       </c>
       <c r="I145">
-        <v>85.72</v>
+        <v>86.48</v>
       </c>
       <c r="J145">
-        <v>2.0003999600079898</v>
+        <v>1.94154577592185</v>
       </c>
       <c r="K145">
-        <v>92.56</v>
+        <v>15.64</v>
       </c>
       <c r="L145">
-        <v>417.28</v>
+        <v>816.04</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B146">
         <v>1000</v>
       </c>
       <c r="C146" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D146" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E146">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F146" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G146">
         <v>0.2</v>
       </c>
       <c r="I146">
-        <v>85.76</v>
+        <v>86.48</v>
       </c>
       <c r="J146">
-        <v>2.0254382241875399</v>
+        <v>2.3515101530718501</v>
       </c>
       <c r="K146">
-        <v>122.06</v>
+        <v>43.16</v>
       </c>
       <c r="L146">
-        <v>414.86</v>
+        <v>781.36</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B147">
         <v>1000</v>
       </c>
       <c r="C147" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D147" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E147">
         <v>0.7</v>
       </c>
       <c r="F147" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G147">
         <v>0.2</v>
       </c>
       <c r="I147">
-        <v>85.76</v>
+        <v>86.48</v>
       </c>
       <c r="J147">
-        <v>1.90326036053925</v>
+        <v>2.5158696309626198</v>
       </c>
       <c r="K147">
-        <v>132.84</v>
+        <v>62.06</v>
       </c>
       <c r="L147">
-        <v>411.7</v>
+        <v>686.32</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
@@ -6126,28 +6126,28 @@
         <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E148">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F148" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G148">
         <v>0.2</v>
       </c>
       <c r="I148">
-        <v>85.84</v>
+        <v>86.52</v>
       </c>
       <c r="J148">
-        <v>1.37637204272681</v>
+        <v>2.3258546816170602</v>
       </c>
       <c r="K148">
-        <v>112.24</v>
+        <v>73.319999999999993</v>
       </c>
       <c r="L148">
-        <v>402.7</v>
+        <v>446.52</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
@@ -6158,7 +6158,7 @@
         <v>1000</v>
       </c>
       <c r="C149" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D149" t="s">
         <v>15</v>
@@ -6167,22 +6167,22 @@
         <v>0.7</v>
       </c>
       <c r="F149" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G149">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I149">
-        <v>85.84</v>
+        <v>86.52</v>
       </c>
       <c r="J149">
-        <v>1.8693314312876601</v>
+        <v>2.07113495455993</v>
       </c>
       <c r="K149">
-        <v>152</v>
+        <v>31.4</v>
       </c>
       <c r="L149">
-        <v>412.3</v>
+        <v>429.74</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
@@ -6193,7 +6193,7 @@
         <v>1000</v>
       </c>
       <c r="C150" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D150" t="s">
         <v>15</v>
@@ -6202,22 +6202,22 @@
         <v>0.8</v>
       </c>
       <c r="F150" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G150">
         <v>0.2</v>
       </c>
       <c r="I150">
-        <v>85.84</v>
+        <v>86.52</v>
       </c>
       <c r="J150">
-        <v>1.54090882274065</v>
+        <v>1.82471915647312</v>
       </c>
       <c r="K150">
-        <v>248.3</v>
+        <v>60.1</v>
       </c>
       <c r="L150">
-        <v>807.04</v>
+        <v>673.88</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
@@ -6228,31 +6228,31 @@
         <v>1000</v>
       </c>
       <c r="C151" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D151" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E151">
         <v>0.8</v>
       </c>
       <c r="F151" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G151">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I151">
-        <v>85.84</v>
+        <v>86.52</v>
       </c>
       <c r="J151">
-        <v>1.7816845961056</v>
+        <v>1.7803370467414299</v>
       </c>
       <c r="K151">
-        <v>77.48</v>
+        <v>21.2</v>
       </c>
       <c r="L151">
-        <v>796.16</v>
+        <v>668.84</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
@@ -6263,66 +6263,66 @@
         <v>1000</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E152">
         <v>0.8</v>
       </c>
       <c r="F152" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G152">
         <v>0.2</v>
       </c>
       <c r="I152">
-        <v>85.88</v>
+        <v>86.56</v>
       </c>
       <c r="J152">
-        <v>1.46478667388804</v>
+        <v>2.2992172581119799</v>
       </c>
       <c r="K152">
-        <v>120.34</v>
+        <v>27.58</v>
       </c>
       <c r="L152">
-        <v>457.44</v>
+        <v>398.06</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B153">
         <v>1000</v>
       </c>
       <c r="C153" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D153" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E153">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F153" t="s">
         <v>12</v>
       </c>
       <c r="G153">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I153">
-        <v>85.88</v>
+        <v>86.56</v>
       </c>
       <c r="J153">
-        <v>1.97625909232569</v>
+        <v>2.2992172581119799</v>
       </c>
       <c r="K153">
-        <v>39.08</v>
+        <v>50.96</v>
       </c>
       <c r="L153">
-        <v>398.94</v>
+        <v>798.48</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
@@ -6333,31 +6333,31 @@
         <v>1000</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D154" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E154">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F154" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G154">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I154">
-        <v>85.88</v>
+        <v>86.56</v>
       </c>
       <c r="J154">
-        <v>1.22702893201423</v>
+        <v>2.40133296316858</v>
       </c>
       <c r="K154">
-        <v>32.479999999999997</v>
+        <v>44.78</v>
       </c>
       <c r="L154">
-        <v>810.02</v>
+        <v>668.72</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
@@ -6368,31 +6368,31 @@
         <v>1000</v>
       </c>
       <c r="C155" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D155" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E155">
         <v>0.7</v>
       </c>
       <c r="F155" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G155">
         <v>0.4</v>
       </c>
       <c r="I155">
-        <v>85.88</v>
+        <v>86.56</v>
       </c>
       <c r="J155">
-        <v>1.6690116836019999</v>
+        <v>1.8778711350888799</v>
       </c>
       <c r="K155">
-        <v>65</v>
+        <v>67.06</v>
       </c>
       <c r="L155">
-        <v>788.98</v>
+        <v>683.7</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
@@ -6403,31 +6403,31 @@
         <v>1000</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D156" t="s">
         <v>10</v>
       </c>
       <c r="E156">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F156" t="s">
         <v>12</v>
       </c>
       <c r="G156">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I156">
-        <v>85.92</v>
+        <v>86.6</v>
       </c>
       <c r="J156">
-        <v>1.19733036376766</v>
+        <v>2.4738633753705899</v>
       </c>
       <c r="K156">
-        <v>27.94</v>
+        <v>17.760000000000002</v>
       </c>
       <c r="L156">
-        <v>467.6</v>
+        <v>394.62</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
@@ -6438,31 +6438,31 @@
         <v>1000</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D157" t="s">
         <v>10</v>
       </c>
       <c r="E157">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F157" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G157">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I157">
-        <v>85.92</v>
+        <v>86.6</v>
       </c>
       <c r="J157">
-        <v>1.43999999999999</v>
+        <v>2.23606797749978</v>
       </c>
       <c r="K157">
-        <v>114.52</v>
+        <v>16.52</v>
       </c>
       <c r="L157">
-        <v>477.22</v>
+        <v>407.22</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
@@ -6473,31 +6473,31 @@
         <v>1000</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D158" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E158">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F158" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G158">
         <v>0.2</v>
       </c>
       <c r="I158">
-        <v>85.92</v>
+        <v>86.6</v>
       </c>
       <c r="J158">
-        <v>1.8312837027615301</v>
+        <v>2.4413111231467401</v>
       </c>
       <c r="K158">
-        <v>88.82</v>
+        <v>12.18</v>
       </c>
       <c r="L158">
-        <v>420.46</v>
+        <v>393.32</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
@@ -6508,66 +6508,66 @@
         <v>1000</v>
       </c>
       <c r="C159" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E159">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F159" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G159">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I159">
-        <v>85.92</v>
+        <v>86.6</v>
       </c>
       <c r="J159">
-        <v>2.1525798475317899</v>
+        <v>2.1260291625469199</v>
       </c>
       <c r="K159">
-        <v>93.04</v>
+        <v>39.94</v>
       </c>
       <c r="L159">
-        <v>404.32</v>
+        <v>399.84</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B160">
         <v>1000</v>
       </c>
       <c r="C160" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D160" t="s">
         <v>10</v>
       </c>
       <c r="E160">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F160" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G160">
         <v>0.2</v>
       </c>
       <c r="I160">
-        <v>85.92</v>
+        <v>86.64</v>
       </c>
       <c r="J160">
-        <v>2.1150886506243598</v>
+        <v>2.17034559460008</v>
       </c>
       <c r="K160">
-        <v>124.36</v>
+        <v>57.04</v>
       </c>
       <c r="L160">
-        <v>419.6</v>
+        <v>697.04</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
@@ -6578,31 +6578,31 @@
         <v>1000</v>
       </c>
       <c r="C161" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D161" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E161">
         <v>0.8</v>
       </c>
       <c r="F161" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G161">
         <v>0.4</v>
       </c>
       <c r="I161">
-        <v>85.92</v>
+        <v>86.68</v>
       </c>
       <c r="J161">
-        <v>1.59799874843505</v>
+        <v>2.2130521909796799</v>
       </c>
       <c r="K161">
-        <v>152.18</v>
+        <v>45.54</v>
       </c>
       <c r="L161">
-        <v>426.28</v>
+        <v>461.66</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
@@ -6613,71 +6613,71 @@
         <v>1000</v>
       </c>
       <c r="C162" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E162">
         <v>0.7</v>
       </c>
       <c r="F162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G162">
         <v>0.4</v>
       </c>
       <c r="I162">
-        <v>85.96</v>
+        <v>86.72</v>
       </c>
       <c r="J162">
-        <v>2.0195048898182901</v>
+        <v>1.63755915923669</v>
       </c>
       <c r="K162">
-        <v>11.28</v>
+        <v>20.36</v>
       </c>
       <c r="L162">
-        <v>399.56</v>
+        <v>351.42</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B163">
         <v>1000</v>
       </c>
       <c r="C163" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D163" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E163">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F163" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G163">
         <v>0.2</v>
       </c>
       <c r="I163">
-        <v>85.96</v>
+        <v>86.72</v>
       </c>
       <c r="J163">
-        <v>1.97949488506537</v>
+        <v>2.3241342474134301</v>
       </c>
       <c r="K163">
-        <v>98.78</v>
+        <v>41.46</v>
       </c>
       <c r="L163">
-        <v>413.14</v>
+        <v>805.62</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B164">
         <v>1000</v>
@@ -6689,60 +6689,60 @@
         <v>10</v>
       </c>
       <c r="E164">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F164" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G164">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I164">
-        <v>85.96</v>
+        <v>86.72</v>
       </c>
       <c r="J164">
-        <v>0.74726166769077595</v>
+        <v>2.2184679398179199</v>
       </c>
       <c r="K164">
-        <v>28.26</v>
+        <v>34.14</v>
       </c>
       <c r="L164">
-        <v>819.26</v>
+        <v>344.9</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B165">
         <v>1000</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D165" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E165">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F165" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G165">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I165">
-        <v>85.96</v>
+        <v>86.72</v>
       </c>
       <c r="J165">
-        <v>1.8106352476409999</v>
+        <v>2.1451340284467002</v>
       </c>
       <c r="K165">
-        <v>28.82</v>
+        <v>43.84</v>
       </c>
       <c r="L165">
-        <v>799.26</v>
+        <v>459.54</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
@@ -6753,31 +6753,31 @@
         <v>1000</v>
       </c>
       <c r="C166" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D166" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E166">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F166" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G166">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I166">
-        <v>85.96</v>
+        <v>86.72</v>
       </c>
       <c r="J166">
-        <v>1.8106352476409999</v>
+        <v>2.45796663931795</v>
       </c>
       <c r="K166">
-        <v>15.42</v>
+        <v>56.28</v>
       </c>
       <c r="L166">
-        <v>810</v>
+        <v>695.82</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
@@ -6788,10 +6788,10 @@
         <v>1000</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E167">
         <v>0.7</v>
@@ -6800,24 +6800,24 @@
         <v>11</v>
       </c>
       <c r="G167">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I167">
-        <v>86</v>
+        <v>86.76</v>
       </c>
       <c r="J167">
-        <v>1.49666295470957</v>
+        <v>2.4944738924270098</v>
       </c>
       <c r="K167">
-        <v>14.02</v>
+        <v>57.44</v>
       </c>
       <c r="L167">
-        <v>795.28</v>
+        <v>788.02</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B168">
         <v>1000</v>
@@ -6829,42 +6829,42 @@
         <v>10</v>
       </c>
       <c r="E168">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F168" t="s">
         <v>12</v>
       </c>
       <c r="G168">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I168">
-        <v>86</v>
+        <v>86.76</v>
       </c>
       <c r="J168">
-        <v>1.13137084989847</v>
+        <v>2.0352886773133601</v>
       </c>
       <c r="K168">
-        <v>62.96</v>
+        <v>21.96</v>
       </c>
       <c r="L168">
-        <v>820.1</v>
+        <v>462.36</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B169">
         <v>1000</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E169">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F169" t="s">
         <v>12</v>
@@ -6873,16 +6873,16 @@
         <v>0.4</v>
       </c>
       <c r="I169">
-        <v>86</v>
+        <v>86.76</v>
       </c>
       <c r="J169">
-        <v>0.97979589711327097</v>
+        <v>2.2588492645592799</v>
       </c>
       <c r="K169">
-        <v>65.400000000000006</v>
+        <v>21.5</v>
       </c>
       <c r="L169">
-        <v>828</v>
+        <v>405.02</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
@@ -6893,66 +6893,66 @@
         <v>1000</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D170" t="s">
         <v>10</v>
       </c>
       <c r="E170">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F170" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G170">
         <v>0.4</v>
       </c>
       <c r="I170">
-        <v>86.04</v>
+        <v>86.76</v>
       </c>
       <c r="J170">
-        <v>1.23223374405994</v>
+        <v>1.95509590557599</v>
       </c>
       <c r="K170">
-        <v>37.76</v>
+        <v>41.66</v>
       </c>
       <c r="L170">
-        <v>368.68</v>
+        <v>478.06</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B171">
         <v>1000</v>
       </c>
       <c r="C171" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D171" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E171">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F171" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G171">
         <v>0.2</v>
       </c>
       <c r="I171">
-        <v>86.04</v>
+        <v>86.76</v>
       </c>
       <c r="J171">
-        <v>2.2446380554557099</v>
+        <v>2.4621941434419798</v>
       </c>
       <c r="K171">
-        <v>131.88</v>
+        <v>37.42</v>
       </c>
       <c r="L171">
-        <v>401.62</v>
+        <v>679.34</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
@@ -6963,147 +6963,147 @@
         <v>1000</v>
       </c>
       <c r="C172" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D172" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E172">
         <v>0.8</v>
       </c>
       <c r="F172" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G172">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I172">
-        <v>86.04</v>
+        <v>86.8</v>
       </c>
       <c r="J172">
-        <v>2.0587374771932399</v>
+        <v>2.2627416997969498</v>
       </c>
       <c r="K172">
-        <v>116.84</v>
+        <v>16.22</v>
       </c>
       <c r="L172">
-        <v>397.26</v>
+        <v>411.14</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B173">
         <v>1000</v>
       </c>
       <c r="C173" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D173" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E173">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F173" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G173">
         <v>0.2</v>
       </c>
       <c r="I173">
-        <v>86.04</v>
+        <v>86.8</v>
       </c>
       <c r="J173">
-        <v>2.27999999999999</v>
+        <v>2.7999999999999901</v>
       </c>
       <c r="K173">
-        <v>21</v>
+        <v>45.82</v>
       </c>
       <c r="L173">
-        <v>788</v>
+        <v>411.78</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B174">
         <v>1000</v>
       </c>
       <c r="C174" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D174" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E174">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F174" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G174">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I174">
-        <v>86.04</v>
+        <v>86.8</v>
       </c>
       <c r="J174">
-        <v>1.8106352476409999</v>
+        <v>2.3999999999999901</v>
       </c>
       <c r="K174">
-        <v>51.06</v>
+        <v>40.04</v>
       </c>
       <c r="L174">
-        <v>781.8</v>
+        <v>402.54</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B175">
         <v>1000</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D175" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E175">
         <v>0.7</v>
       </c>
       <c r="F175" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G175">
         <v>0.2</v>
       </c>
       <c r="I175">
-        <v>86.08</v>
+        <v>86.84</v>
       </c>
       <c r="J175">
-        <v>2.1525798475317899</v>
+        <v>2.30095632292314</v>
       </c>
       <c r="K175">
-        <v>116.3</v>
+        <v>107.24</v>
       </c>
       <c r="L175">
-        <v>419.5</v>
+        <v>696.24</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B176">
         <v>1000</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D176" t="s">
         <v>10</v>
@@ -7118,51 +7118,51 @@
         <v>0.4</v>
       </c>
       <c r="I176">
-        <v>86.12</v>
+        <v>86.88</v>
       </c>
       <c r="J176">
-        <v>1.22702893201423</v>
+        <v>2.1226398658274501</v>
       </c>
       <c r="K176">
-        <v>19.48</v>
+        <v>14.22</v>
       </c>
       <c r="L176">
-        <v>455.82</v>
+        <v>812.2</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B177">
         <v>1000</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D177" t="s">
         <v>10</v>
       </c>
       <c r="E177">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F177" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G177">
         <v>0.2</v>
       </c>
       <c r="I177">
-        <v>86.16</v>
+        <v>86.88</v>
       </c>
       <c r="J177">
-        <v>1.64146276229465</v>
+        <v>1.8399999999999901</v>
       </c>
       <c r="K177">
-        <v>85.9</v>
+        <v>6.1</v>
       </c>
       <c r="L177">
-        <v>384.26</v>
+        <v>693.48</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
@@ -7173,71 +7173,71 @@
         <v>1000</v>
       </c>
       <c r="C178" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E178">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F178" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G178">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I178">
-        <v>86.16</v>
+        <v>86.88</v>
       </c>
       <c r="J178">
-        <v>1.64146276229465</v>
+        <v>2.7176460402340799</v>
       </c>
       <c r="K178">
-        <v>30.72</v>
+        <v>70.5</v>
       </c>
       <c r="L178">
-        <v>805.34</v>
+        <v>681.48</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B179">
         <v>1000</v>
       </c>
       <c r="C179" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D179" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E179">
         <v>0.7</v>
       </c>
       <c r="F179" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G179">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I179">
-        <v>86.2</v>
+        <v>86.92</v>
       </c>
       <c r="J179">
-        <v>1.8867962264113201</v>
+        <v>2.5364542179980298</v>
       </c>
       <c r="K179">
-        <v>107.46</v>
+        <v>68.36</v>
       </c>
       <c r="L179">
-        <v>399.24</v>
+        <v>693.66</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B180">
         <v>1000</v>
@@ -7252,27 +7252,27 @@
         <v>0.7</v>
       </c>
       <c r="F180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G180">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I180">
-        <v>86.2</v>
+        <v>86.96</v>
       </c>
       <c r="J180">
-        <v>0.6</v>
+        <v>1.92831532691103</v>
       </c>
       <c r="K180">
-        <v>23.82</v>
+        <v>14</v>
       </c>
       <c r="L180">
-        <v>822.02</v>
+        <v>389.26</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B181">
         <v>1000</v>
@@ -7281,98 +7281,98 @@
         <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E181">
         <v>0.8</v>
       </c>
       <c r="F181" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G181">
         <v>0.2</v>
       </c>
       <c r="I181">
-        <v>86.2</v>
+        <v>86.96</v>
       </c>
       <c r="J181">
-        <v>1.84390889145857</v>
+        <v>2.0876781361119798</v>
       </c>
       <c r="K181">
-        <v>22.42</v>
+        <v>30.14</v>
       </c>
       <c r="L181">
-        <v>802.6</v>
+        <v>345.18</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B182">
         <v>1000</v>
       </c>
       <c r="C182" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E182">
         <v>0.8</v>
       </c>
       <c r="F182" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G182">
         <v>0.2</v>
       </c>
       <c r="I182">
-        <v>86.2</v>
+        <v>86.96</v>
       </c>
       <c r="J182">
-        <v>2.0099751242241699</v>
+        <v>2.12565284089382</v>
       </c>
       <c r="K182">
-        <v>31.26</v>
+        <v>30.68</v>
       </c>
       <c r="L182">
-        <v>797.18</v>
+        <v>451.02</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B183">
         <v>1000</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D183" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E183">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F183" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G183">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I183">
-        <v>86.24</v>
+        <v>86.96</v>
       </c>
       <c r="J183">
-        <v>1.5304901175767101</v>
+        <v>2.3745315327449301</v>
       </c>
       <c r="K183">
-        <v>25.68</v>
+        <v>57.02</v>
       </c>
       <c r="L183">
-        <v>407.6</v>
+        <v>673</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
@@ -7383,42 +7383,42 @@
         <v>1000</v>
       </c>
       <c r="C184" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E184">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F184" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G184">
         <v>0.2</v>
       </c>
       <c r="I184">
-        <v>86.24</v>
+        <v>87</v>
       </c>
       <c r="J184">
-        <v>1.9448393249829099</v>
+        <v>2.1260291625469301</v>
       </c>
       <c r="K184">
-        <v>151.78</v>
+        <v>31.84</v>
       </c>
       <c r="L184">
-        <v>405.6</v>
+        <v>401.24</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B185">
         <v>1000</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D185" t="s">
         <v>10</v>
@@ -7427,68 +7427,68 @@
         <v>0.8</v>
       </c>
       <c r="F185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G185">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I185">
-        <v>86.24</v>
+        <v>87</v>
       </c>
       <c r="J185">
-        <v>1.4772948250095499</v>
+        <v>2.0493901531919199</v>
       </c>
       <c r="K185">
-        <v>19.239999999999998</v>
+        <v>14.02</v>
       </c>
       <c r="L185">
-        <v>799.76</v>
+        <v>404.7</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B186">
         <v>1000</v>
       </c>
       <c r="C186" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E186">
         <v>0.7</v>
       </c>
       <c r="F186" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G186">
         <v>0.4</v>
       </c>
       <c r="I186">
-        <v>86.28</v>
+        <v>87</v>
       </c>
       <c r="J186">
-        <v>2.11697897958387</v>
+        <v>2.3748684174075798</v>
       </c>
       <c r="K186">
-        <v>42.42</v>
+        <v>61.72</v>
       </c>
       <c r="L186">
-        <v>802.7</v>
+        <v>449.52</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B187">
         <v>1000</v>
       </c>
       <c r="C187" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D187" t="s">
         <v>15</v>
@@ -7497,97 +7497,97 @@
         <v>0.8</v>
       </c>
       <c r="F187" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G187">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I187">
-        <v>86.32</v>
+        <v>87</v>
       </c>
       <c r="J187">
-        <v>2.31032465251098</v>
+        <v>2.0880613017821101</v>
       </c>
       <c r="K187">
-        <v>19.579999999999998</v>
+        <v>56.9</v>
       </c>
       <c r="L187">
-        <v>792.72</v>
+        <v>427.26</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B188">
         <v>1000</v>
       </c>
       <c r="C188" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E188">
         <v>0.8</v>
       </c>
       <c r="F188" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G188">
         <v>0.2</v>
       </c>
       <c r="I188">
-        <v>86.36</v>
+        <v>87</v>
       </c>
       <c r="J188">
-        <v>2.2159422375143198</v>
+        <v>2.3748684174075798</v>
       </c>
       <c r="K188">
-        <v>98.34</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="L188">
-        <v>411.8</v>
+        <v>695.62</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B189">
         <v>1000</v>
       </c>
       <c r="C189" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E189">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F189" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G189">
         <v>0.4</v>
       </c>
       <c r="I189">
-        <v>86.4</v>
+        <v>87.04</v>
       </c>
       <c r="J189">
-        <v>2.2627416997969498</v>
+        <v>2.0489997559785098</v>
       </c>
       <c r="K189">
-        <v>39.46</v>
+        <v>47.26</v>
       </c>
       <c r="L189">
-        <v>398.3</v>
+        <v>811.76</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B190">
         <v>1000</v>
@@ -7596,10 +7596,10 @@
         <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E190">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F190" t="s">
         <v>12</v>
@@ -7608,27 +7608,27 @@
         <v>0.2</v>
       </c>
       <c r="I190">
-        <v>86.4</v>
+        <v>87.04</v>
       </c>
       <c r="J190">
-        <v>1.7888543819998299</v>
+        <v>2.27121113065254</v>
       </c>
       <c r="K190">
-        <v>20.48</v>
+        <v>18.3</v>
       </c>
       <c r="L190">
-        <v>810.54</v>
+        <v>401.72</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B191">
         <v>1000</v>
       </c>
       <c r="C191" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D191" t="s">
         <v>10</v>
@@ -7637,109 +7637,109 @@
         <v>0.7</v>
       </c>
       <c r="F191" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G191">
         <v>0.2</v>
       </c>
       <c r="I191">
-        <v>86.4</v>
+        <v>87.04</v>
       </c>
       <c r="J191">
-        <v>1.95959179422654</v>
+        <v>2.3745315327449301</v>
       </c>
       <c r="K191">
-        <v>26.8</v>
+        <v>37.840000000000003</v>
       </c>
       <c r="L191">
-        <v>799.56</v>
+        <v>451.42</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B192">
         <v>1000</v>
       </c>
       <c r="C192" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E192">
         <v>0.7</v>
       </c>
       <c r="F192" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G192">
         <v>0.4</v>
       </c>
       <c r="I192">
-        <v>86.4</v>
+        <v>87.04</v>
       </c>
       <c r="J192">
-        <v>1.99999999999999</v>
+        <v>2.4079867109267798</v>
       </c>
       <c r="K192">
-        <v>8.14</v>
+        <v>51.32</v>
       </c>
       <c r="L192">
-        <v>804.52</v>
+        <v>442.54</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B193">
         <v>1000</v>
       </c>
       <c r="C193" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E193">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F193" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G193">
         <v>0.2</v>
       </c>
       <c r="I193">
-        <v>86.44</v>
+        <v>87.04</v>
       </c>
       <c r="J193">
-        <v>1.9303885619221799</v>
+        <v>2.4409834083827699</v>
       </c>
       <c r="K193">
-        <v>27.1</v>
+        <v>45.14</v>
       </c>
       <c r="L193">
-        <v>786.8</v>
+        <v>438.18</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B194">
         <v>1000</v>
       </c>
       <c r="C194" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E194">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F194" t="s">
         <v>11</v>
@@ -7748,16 +7748,16 @@
         <v>0.2</v>
       </c>
       <c r="I194">
-        <v>86.44</v>
+        <v>87.08</v>
       </c>
       <c r="J194">
-        <v>1.9303885619221799</v>
+        <v>2.56780061531264</v>
       </c>
       <c r="K194">
-        <v>24.38</v>
+        <v>37.340000000000003</v>
       </c>
       <c r="L194">
-        <v>787.94</v>
+        <v>447.58</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
@@ -7768,10 +7768,10 @@
         <v>1000</v>
       </c>
       <c r="C195" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E195">
         <v>0.8</v>
@@ -7783,16 +7783,16 @@
         <v>0.4</v>
       </c>
       <c r="I195">
-        <v>86.44</v>
+        <v>87.08</v>
       </c>
       <c r="J195">
-        <v>1.40228385143664</v>
+        <v>2.0865282169191901</v>
       </c>
       <c r="K195">
-        <v>30.48</v>
+        <v>80.459999999999994</v>
       </c>
       <c r="L195">
-        <v>789.74</v>
+        <v>818.74</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
@@ -7803,10 +7803,10 @@
         <v>1000</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D196" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E196">
         <v>0.7</v>
@@ -7815,30 +7815,30 @@
         <v>12</v>
       </c>
       <c r="G196">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I196">
-        <v>86.48</v>
+        <v>87.08</v>
       </c>
       <c r="J196">
-        <v>1.5778466338652799</v>
+        <v>2.2346364357541399</v>
       </c>
       <c r="K196">
-        <v>36.78</v>
+        <v>14.92</v>
       </c>
       <c r="L196">
-        <v>409.88</v>
+        <v>393.96</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B197">
         <v>1000</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D197" t="s">
         <v>10</v>
@@ -7847,92 +7847,92 @@
         <v>0.7</v>
       </c>
       <c r="F197" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G197">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I197">
-        <v>86.48</v>
+        <v>87.08</v>
       </c>
       <c r="J197">
-        <v>1.94154577592185</v>
+        <v>2.3735205918634801</v>
       </c>
       <c r="K197">
-        <v>15.64</v>
+        <v>35.26</v>
       </c>
       <c r="L197">
-        <v>816.04</v>
+        <v>431.22</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B198">
         <v>1000</v>
       </c>
       <c r="C198" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E198">
         <v>0.7</v>
       </c>
       <c r="F198" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G198">
         <v>0.2</v>
       </c>
       <c r="I198">
-        <v>86.48</v>
+        <v>87.12</v>
       </c>
       <c r="J198">
-        <v>2.3515101530718501</v>
+        <v>2.53487672284077</v>
       </c>
       <c r="K198">
-        <v>43.16</v>
+        <v>48.48</v>
       </c>
       <c r="L198">
-        <v>781.36</v>
+        <v>376.4</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B199">
         <v>1000</v>
       </c>
       <c r="C199" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D199" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E199">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F199" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G199">
         <v>0.2</v>
       </c>
       <c r="I199">
-        <v>86.56</v>
+        <v>87.16</v>
       </c>
       <c r="J199">
-        <v>1.8778711350888799</v>
+        <v>2.08192218874769</v>
       </c>
       <c r="K199">
-        <v>145.19999999999999</v>
+        <v>24.22</v>
       </c>
       <c r="L199">
-        <v>408</v>
+        <v>798.16</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
@@ -7943,31 +7943,31 @@
         <v>1000</v>
       </c>
       <c r="C200" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D200" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E200">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F200" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G200">
         <v>0.2</v>
       </c>
       <c r="I200">
-        <v>86.56</v>
+        <v>87.16</v>
       </c>
       <c r="J200">
-        <v>2.2992172581119799</v>
+        <v>2.59507225332937</v>
       </c>
       <c r="K200">
-        <v>27.58</v>
+        <v>72.34</v>
       </c>
       <c r="L200">
-        <v>398.06</v>
+        <v>395.2</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
@@ -7978,31 +7978,31 @@
         <v>1000</v>
       </c>
       <c r="C201" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D201" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E201">
         <v>0.8</v>
       </c>
       <c r="F201" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G201">
         <v>0.2</v>
       </c>
       <c r="I201">
-        <v>86.56</v>
+        <v>87.2</v>
       </c>
       <c r="J201">
-        <v>2.2992172581119799</v>
+        <v>2.3323807579381102</v>
       </c>
       <c r="K201">
-        <v>50.96</v>
+        <v>67.16</v>
       </c>
       <c r="L201">
-        <v>798.48</v>
+        <v>684.4</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
@@ -8013,31 +8013,31 @@
         <v>1000</v>
       </c>
       <c r="C202" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E202">
         <v>0.7</v>
       </c>
       <c r="F202" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G202">
         <v>0.2</v>
       </c>
       <c r="I202">
-        <v>86.6</v>
+        <v>87.24</v>
       </c>
       <c r="J202">
-        <v>2.4738633753705899</v>
+        <v>2.39633052812002</v>
       </c>
       <c r="K202">
-        <v>17.760000000000002</v>
+        <v>27</v>
       </c>
       <c r="L202">
-        <v>394.62</v>
+        <v>376.82</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
@@ -8048,31 +8048,31 @@
         <v>1000</v>
       </c>
       <c r="C203" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D203" t="s">
         <v>10</v>
       </c>
       <c r="E203">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F203" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G203">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I203">
-        <v>86.6</v>
+        <v>87.24</v>
       </c>
       <c r="J203">
-        <v>2.23606797749978</v>
+        <v>2.2231509170544399</v>
       </c>
       <c r="K203">
-        <v>16.52</v>
+        <v>38.04</v>
       </c>
       <c r="L203">
-        <v>407.22</v>
+        <v>453.28</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
@@ -8083,13 +8083,13 @@
         <v>1000</v>
       </c>
       <c r="C204" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D204" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E204">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F204" t="s">
         <v>12</v>
@@ -8098,16 +8098,16 @@
         <v>0.2</v>
       </c>
       <c r="I204">
-        <v>86.6</v>
+        <v>87.28</v>
       </c>
       <c r="J204">
-        <v>2.4413111231467401</v>
+        <v>2.3919866220361601</v>
       </c>
       <c r="K204">
-        <v>12.18</v>
+        <v>10.84</v>
       </c>
       <c r="L204">
-        <v>393.32</v>
+        <v>399.42</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
@@ -8118,31 +8118,31 @@
         <v>1000</v>
       </c>
       <c r="C205" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E205">
         <v>0.8</v>
       </c>
       <c r="F205" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G205">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I205">
-        <v>86.6</v>
+        <v>87.32</v>
       </c>
       <c r="J205">
-        <v>2.1260291625469199</v>
+        <v>2.1766028576660399</v>
       </c>
       <c r="K205">
-        <v>39.94</v>
+        <v>23.56</v>
       </c>
       <c r="L205">
-        <v>399.84</v>
+        <v>345.3</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
@@ -8165,54 +8165,54 @@
         <v>11</v>
       </c>
       <c r="G206">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I206">
-        <v>86.72</v>
+        <v>87.36</v>
       </c>
       <c r="J206">
-        <v>1.63755915923669</v>
+        <v>2.3474241201793902</v>
       </c>
       <c r="K206">
-        <v>20.36</v>
+        <v>9.48</v>
       </c>
       <c r="L206">
-        <v>351.42</v>
+        <v>332.56</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B207">
         <v>1000</v>
       </c>
       <c r="C207" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D207" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E207">
         <v>0.7</v>
       </c>
       <c r="F207" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G207">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I207">
-        <v>86.72</v>
+        <v>87.36</v>
       </c>
       <c r="J207">
-        <v>2.3241342474134301</v>
+        <v>2.48</v>
       </c>
       <c r="K207">
-        <v>41.46</v>
+        <v>83.34</v>
       </c>
       <c r="L207">
-        <v>805.62</v>
+        <v>428.62</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
@@ -8223,31 +8223,31 @@
         <v>1000</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D208" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E208">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F208" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G208">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I208">
-        <v>86.76</v>
+        <v>87.36</v>
       </c>
       <c r="J208">
-        <v>2.0352886773133601</v>
+        <v>2.41462212364585</v>
       </c>
       <c r="K208">
-        <v>21.96</v>
+        <v>38.020000000000003</v>
       </c>
       <c r="L208">
-        <v>462.36</v>
+        <v>416.92</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
@@ -8258,66 +8258,66 @@
         <v>1000</v>
       </c>
       <c r="C209" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E209">
         <v>0.7</v>
       </c>
       <c r="F209" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G209">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I209">
-        <v>86.76</v>
+        <v>87.4</v>
       </c>
       <c r="J209">
-        <v>2.2588492645592799</v>
+        <v>2.0493901531919101</v>
       </c>
       <c r="K209">
-        <v>21.5</v>
+        <v>49.2</v>
       </c>
       <c r="L209">
-        <v>405.02</v>
+        <v>343.02</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B210">
         <v>1000</v>
       </c>
       <c r="C210" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D210" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E210">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F210" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G210">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I210">
-        <v>86.76</v>
+        <v>87.4</v>
       </c>
       <c r="J210">
-        <v>2.4944738924270098</v>
+        <v>2.3409399821439201</v>
       </c>
       <c r="K210">
-        <v>57.44</v>
+        <v>57.46</v>
       </c>
       <c r="L210">
-        <v>788.02</v>
+        <v>433.18</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
@@ -8328,10 +8328,10 @@
         <v>1000</v>
       </c>
       <c r="C211" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D211" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E211">
         <v>0.8</v>
@@ -8340,54 +8340,54 @@
         <v>12</v>
       </c>
       <c r="G211">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I211">
-        <v>86.8</v>
+        <v>87.44</v>
       </c>
       <c r="J211">
-        <v>2.2627416997969498</v>
+        <v>2.4670630312174802</v>
       </c>
       <c r="K211">
-        <v>16.22</v>
+        <v>13.08</v>
       </c>
       <c r="L211">
-        <v>411.14</v>
+        <v>406.94</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B212">
         <v>1000</v>
       </c>
       <c r="C212" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D212" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E212">
         <v>0.8</v>
       </c>
       <c r="F212" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G212">
         <v>0.4</v>
       </c>
       <c r="I212">
-        <v>86.88</v>
+        <v>87.44</v>
       </c>
       <c r="J212">
-        <v>2.1226398658274501</v>
+        <v>2.40133296316858</v>
       </c>
       <c r="K212">
-        <v>14.22</v>
+        <v>77.239999999999995</v>
       </c>
       <c r="L212">
-        <v>812.2</v>
+        <v>393.96</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
@@ -8398,31 +8398,31 @@
         <v>1000</v>
       </c>
       <c r="C213" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D213" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E213">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F213" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G213">
         <v>0.2</v>
       </c>
       <c r="I213">
-        <v>86.96</v>
+        <v>87.52</v>
       </c>
       <c r="J213">
-        <v>1.92831532691103</v>
+        <v>2.5786818338057902</v>
       </c>
       <c r="K213">
-        <v>14</v>
+        <v>46.32</v>
       </c>
       <c r="L213">
-        <v>389.26</v>
+        <v>450.04</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
@@ -8433,31 +8433,31 @@
         <v>1000</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D214" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E214">
         <v>0.8</v>
       </c>
       <c r="F214" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G214">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I214">
-        <v>87</v>
+        <v>87.52</v>
       </c>
       <c r="J214">
-        <v>2.1260291625469301</v>
+        <v>2.4514485513671298</v>
       </c>
       <c r="K214">
-        <v>31.84</v>
+        <v>27.3</v>
       </c>
       <c r="L214">
-        <v>401.24</v>
+        <v>447.64</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
@@ -8468,10 +8468,10 @@
         <v>1000</v>
       </c>
       <c r="C215" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D215" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E215">
         <v>0.8</v>
@@ -8480,19 +8480,19 @@
         <v>12</v>
       </c>
       <c r="G215">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I215">
-        <v>87</v>
+        <v>87.56</v>
       </c>
       <c r="J215">
-        <v>2.0493901531919199</v>
+        <v>2.8082734909548899</v>
       </c>
       <c r="K215">
-        <v>14.02</v>
+        <v>20.059999999999999</v>
       </c>
       <c r="L215">
-        <v>404.7</v>
+        <v>400.58</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
@@ -8506,28 +8506,28 @@
         <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E216">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F216" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G216">
         <v>0.2</v>
       </c>
       <c r="I216">
-        <v>87.04</v>
+        <v>87.6</v>
       </c>
       <c r="J216">
-        <v>2.27121113065254</v>
+        <v>2.11660104885167</v>
       </c>
       <c r="K216">
-        <v>18.3</v>
+        <v>18.86</v>
       </c>
       <c r="L216">
-        <v>401.72</v>
+        <v>454.24</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
@@ -8538,13 +8538,13 @@
         <v>1000</v>
       </c>
       <c r="C217" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D217" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E217">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F217" t="s">
         <v>11</v>
@@ -8553,16 +8553,16 @@
         <v>0.4</v>
       </c>
       <c r="I217">
-        <v>87.04</v>
+        <v>87.6</v>
       </c>
       <c r="J217">
-        <v>2.0489997559785098</v>
+        <v>2.4</v>
       </c>
       <c r="K217">
-        <v>47.26</v>
+        <v>55.02</v>
       </c>
       <c r="L217">
-        <v>811.76</v>
+        <v>803.46</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
@@ -8573,31 +8573,31 @@
         <v>1000</v>
       </c>
       <c r="C218" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D218" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E218">
         <v>0.7</v>
       </c>
       <c r="F218" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G218">
         <v>0.2</v>
       </c>
       <c r="I218">
-        <v>87.08</v>
+        <v>87.64</v>
       </c>
       <c r="J218">
-        <v>2.56780061531264</v>
+        <v>2.8758303148829798</v>
       </c>
       <c r="K218">
-        <v>37.340000000000003</v>
+        <v>53.72</v>
       </c>
       <c r="L218">
-        <v>447.58</v>
+        <v>434.84</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
@@ -8608,31 +8608,31 @@
         <v>1000</v>
       </c>
       <c r="C219" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D219" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E219">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F219" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G219">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I219">
-        <v>87.08</v>
+        <v>87.68</v>
       </c>
       <c r="J219">
-        <v>2.2346364357541399</v>
+        <v>2.4119701490690102</v>
       </c>
       <c r="K219">
-        <v>14.92</v>
+        <v>23.16</v>
       </c>
       <c r="L219">
-        <v>393.96</v>
+        <v>397.82</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
@@ -8643,13 +8643,13 @@
         <v>1000</v>
       </c>
       <c r="C220" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D220" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E220">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F220" t="s">
         <v>11</v>
@@ -8658,86 +8658,86 @@
         <v>0.4</v>
       </c>
       <c r="I220">
-        <v>87.08</v>
+        <v>87.68</v>
       </c>
       <c r="J220">
-        <v>2.0865282169191901</v>
+        <v>2.0922714928995201</v>
       </c>
       <c r="K220">
-        <v>80.459999999999994</v>
+        <v>61.32</v>
       </c>
       <c r="L220">
-        <v>818.74</v>
+        <v>807.08</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B221">
         <v>1000</v>
       </c>
       <c r="C221" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D221" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E221">
         <v>0.7</v>
       </c>
       <c r="F221" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G221">
         <v>0.2</v>
       </c>
       <c r="I221">
-        <v>87.16</v>
+        <v>87.68</v>
       </c>
       <c r="J221">
-        <v>2.08192218874769</v>
+        <v>2.57246963053016</v>
       </c>
       <c r="K221">
-        <v>24.22</v>
+        <v>15.74</v>
       </c>
       <c r="L221">
-        <v>798.16</v>
+        <v>403.3</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B222">
         <v>1000</v>
       </c>
       <c r="C222" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E222">
         <v>0.8</v>
       </c>
       <c r="F222" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G222">
         <v>0.2</v>
       </c>
       <c r="I222">
-        <v>87.28</v>
+        <v>87.72</v>
       </c>
       <c r="J222">
-        <v>2.3919866220361601</v>
+        <v>2.3667699507979201</v>
       </c>
       <c r="K222">
-        <v>10.84</v>
+        <v>9.9</v>
       </c>
       <c r="L222">
-        <v>399.42</v>
+        <v>797.62</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
@@ -8748,66 +8748,66 @@
         <v>1000</v>
       </c>
       <c r="C223" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D223" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E223">
         <v>0.7</v>
       </c>
       <c r="F223" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G223">
         <v>0.2</v>
       </c>
       <c r="I223">
-        <v>87.36</v>
+        <v>87.76</v>
       </c>
       <c r="J223">
-        <v>2.3474241201793902</v>
+        <v>2.5811625287842599</v>
       </c>
       <c r="K223">
-        <v>9.48</v>
+        <v>55.98</v>
       </c>
       <c r="L223">
-        <v>332.56</v>
+        <v>423.4</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B224">
         <v>1000</v>
       </c>
       <c r="C224" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D224" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E224">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F224" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G224">
         <v>0.2</v>
       </c>
       <c r="I224">
-        <v>87.44</v>
+        <v>87.96</v>
       </c>
       <c r="J224">
-        <v>2.4670630312174802</v>
+        <v>2.8139651739138398</v>
       </c>
       <c r="K224">
-        <v>13.08</v>
+        <v>39.06</v>
       </c>
       <c r="L224">
-        <v>406.94</v>
+        <v>778.94</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
@@ -8818,36 +8818,36 @@
         <v>1000</v>
       </c>
       <c r="C225" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D225" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E225">
         <v>0.8</v>
       </c>
       <c r="F225" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G225">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I225">
-        <v>87.56</v>
+        <v>88.08</v>
       </c>
       <c r="J225">
-        <v>2.8082734909548899</v>
+        <v>2.77012635090892</v>
       </c>
       <c r="K225">
-        <v>20.059999999999999</v>
+        <v>36.46</v>
       </c>
       <c r="L225">
-        <v>400.58</v>
+        <v>402.72</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B226">
         <v>1000</v>
@@ -8856,10 +8856,10 @@
         <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E226">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F226" t="s">
         <v>11</v>
@@ -8868,86 +8868,86 @@
         <v>0.2</v>
       </c>
       <c r="I226">
-        <v>87.6</v>
+        <v>88.08</v>
       </c>
       <c r="J226">
-        <v>2.11660104885167</v>
+        <v>2.4317894645712999</v>
       </c>
       <c r="K226">
-        <v>18.86</v>
+        <v>12.78</v>
       </c>
       <c r="L226">
-        <v>454.24</v>
+        <v>801.56</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B227">
         <v>1000</v>
       </c>
       <c r="C227" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D227" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E227">
         <v>0.8</v>
       </c>
       <c r="F227" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G227">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I227">
-        <v>87.6</v>
+        <v>88.12</v>
       </c>
       <c r="J227">
-        <v>2.4</v>
+        <v>2.2417850030723199</v>
       </c>
       <c r="K227">
-        <v>55.02</v>
+        <v>27.88</v>
       </c>
       <c r="L227">
-        <v>803.46</v>
+        <v>454.82</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B228">
         <v>1000</v>
       </c>
       <c r="C228" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D228" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E228">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F228" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G228">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I228">
-        <v>87.68</v>
+        <v>88.16</v>
       </c>
       <c r="J228">
-        <v>2.57246963053016</v>
+        <v>2.1850400453996199</v>
       </c>
       <c r="K228">
-        <v>15.74</v>
+        <v>6.18</v>
       </c>
       <c r="L228">
-        <v>403.3</v>
+        <v>812.38</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
@@ -8958,45 +8958,45 @@
         <v>1000</v>
       </c>
       <c r="C229" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D229" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E229">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F229" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G229">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I229">
-        <v>87.68</v>
+        <v>88.24</v>
       </c>
       <c r="J229">
-        <v>2.4119701490690102</v>
+        <v>2.2852570971337101</v>
       </c>
       <c r="K229">
-        <v>23.16</v>
+        <v>29.36</v>
       </c>
       <c r="L229">
-        <v>397.82</v>
+        <v>438.02</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B230">
         <v>1000</v>
       </c>
       <c r="C230" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D230" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E230">
         <v>0.7</v>
@@ -9008,16 +9008,16 @@
         <v>0.4</v>
       </c>
       <c r="I230">
-        <v>87.68</v>
+        <v>88.36</v>
       </c>
       <c r="J230">
-        <v>2.0922714928995201</v>
+        <v>2.7332032489370399</v>
       </c>
       <c r="K230">
-        <v>61.32</v>
+        <v>33.58</v>
       </c>
       <c r="L230">
-        <v>807.08</v>
+        <v>406.5</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
@@ -9028,45 +9028,45 @@
         <v>1000</v>
       </c>
       <c r="C231" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D231" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E231">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F231" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G231">
         <v>0.2</v>
       </c>
       <c r="I231">
-        <v>87.72</v>
+        <v>88.4</v>
       </c>
       <c r="J231">
-        <v>2.3667699507979201</v>
+        <v>1.99999999999999</v>
       </c>
       <c r="K231">
-        <v>9.9</v>
+        <v>33.5</v>
       </c>
       <c r="L231">
-        <v>797.62</v>
+        <v>685.48</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B232">
         <v>1000</v>
       </c>
       <c r="C232" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D232" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E232">
         <v>0.7</v>
@@ -9078,16 +9078,16 @@
         <v>0.2</v>
       </c>
       <c r="I232">
-        <v>87.96</v>
+        <v>88.44</v>
       </c>
       <c r="J232">
-        <v>2.8139651739138398</v>
+        <v>2.6620293011159699</v>
       </c>
       <c r="K232">
-        <v>39.06</v>
+        <v>28.28</v>
       </c>
       <c r="L232">
-        <v>778.94</v>
+        <v>396.02</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
@@ -9098,13 +9098,13 @@
         <v>1000</v>
       </c>
       <c r="C233" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D233" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E233">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F233" t="s">
         <v>11</v>
@@ -9113,51 +9113,51 @@
         <v>0.4</v>
       </c>
       <c r="I233">
-        <v>88.08</v>
+        <v>88.48</v>
       </c>
       <c r="J233">
-        <v>2.77012635090892</v>
+        <v>2.6701310829245801</v>
       </c>
       <c r="K233">
-        <v>36.46</v>
+        <v>20.88</v>
       </c>
       <c r="L233">
-        <v>402.72</v>
+        <v>401.9</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B234">
         <v>1000</v>
       </c>
       <c r="C234" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D234" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E234">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F234" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G234">
         <v>0.2</v>
       </c>
       <c r="I234">
-        <v>88.08</v>
+        <v>88.48</v>
       </c>
       <c r="J234">
-        <v>2.4317894645712999</v>
+        <v>2.64</v>
       </c>
       <c r="K234">
-        <v>12.78</v>
+        <v>24.96</v>
       </c>
       <c r="L234">
-        <v>801.56</v>
+        <v>431.16</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
@@ -9168,10 +9168,10 @@
         <v>1000</v>
       </c>
       <c r="C235" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D235" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E235">
         <v>0.8</v>
@@ -9180,33 +9180,33 @@
         <v>11</v>
       </c>
       <c r="G235">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I235">
-        <v>88.16</v>
+        <v>88.6</v>
       </c>
       <c r="J235">
-        <v>2.1850400453996199</v>
+        <v>2.19999999999999</v>
       </c>
       <c r="K235">
-        <v>6.18</v>
+        <v>18.96</v>
       </c>
       <c r="L235">
-        <v>812.38</v>
+        <v>791.12</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B236">
         <v>1000</v>
       </c>
       <c r="C236" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D236" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E236">
         <v>0.7</v>
@@ -9215,19 +9215,19 @@
         <v>11</v>
       </c>
       <c r="G236">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I236">
-        <v>88.36</v>
+        <v>88.64</v>
       </c>
       <c r="J236">
-        <v>2.7332032489370399</v>
+        <v>2.3130931671681498</v>
       </c>
       <c r="K236">
-        <v>33.58</v>
+        <v>14.78</v>
       </c>
       <c r="L236">
-        <v>406.5</v>
+        <v>790.6</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
@@ -9238,13 +9238,13 @@
         <v>1000</v>
       </c>
       <c r="C237" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D237" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E237">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F237" t="s">
         <v>11</v>
@@ -9253,16 +9253,16 @@
         <v>0.2</v>
       </c>
       <c r="I237">
-        <v>88.44</v>
+        <v>88.76</v>
       </c>
       <c r="J237">
-        <v>2.6620293011159699</v>
+        <v>2.3286047324524599</v>
       </c>
       <c r="K237">
-        <v>28.28</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="L237">
-        <v>396.02</v>
+        <v>394.22</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
@@ -9273,150 +9273,150 @@
         <v>1000</v>
       </c>
       <c r="C238" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D238" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E238">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F238" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G238">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I238">
-        <v>88.48</v>
+        <v>88.76</v>
       </c>
       <c r="J238">
-        <v>2.6701310829245801</v>
+        <v>2.5578115645996999</v>
       </c>
       <c r="K238">
-        <v>20.88</v>
+        <v>29.44</v>
       </c>
       <c r="L238">
-        <v>401.9</v>
+        <v>451.42</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B239">
         <v>1000</v>
       </c>
       <c r="C239" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D239" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E239">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F239" t="s">
         <v>11</v>
       </c>
       <c r="G239">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I239">
-        <v>88.6</v>
+        <v>88.8</v>
       </c>
       <c r="J239">
-        <v>2.19999999999999</v>
+        <v>2.49799919935935</v>
       </c>
       <c r="K239">
-        <v>18.96</v>
+        <v>32.74</v>
       </c>
       <c r="L239">
-        <v>791.12</v>
+        <v>404.8</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B240">
         <v>1000</v>
       </c>
       <c r="C240" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D240" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E240">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F240" t="s">
         <v>11</v>
       </c>
       <c r="G240">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I240">
-        <v>88.64</v>
+        <v>88.8</v>
       </c>
       <c r="J240">
-        <v>2.3130931671681498</v>
+        <v>2.3323807579381102</v>
       </c>
       <c r="K240">
-        <v>14.78</v>
+        <v>31.9</v>
       </c>
       <c r="L240">
-        <v>790.6</v>
+        <v>410.2</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B241">
         <v>1000</v>
       </c>
       <c r="C241" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D241" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E241">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F241" t="s">
         <v>11</v>
       </c>
       <c r="G241">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I241">
-        <v>88.76</v>
+        <v>88.84</v>
       </c>
       <c r="J241">
-        <v>2.3286047324524599</v>
+        <v>2.3694725151391798</v>
       </c>
       <c r="K241">
-        <v>9.9600000000000009</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="L241">
-        <v>394.22</v>
+        <v>808.44</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B242">
         <v>1000</v>
       </c>
       <c r="C242" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D242" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E242">
         <v>0.7</v>
@@ -9425,19 +9425,19 @@
         <v>11</v>
       </c>
       <c r="G242">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I242">
-        <v>88.8</v>
+        <v>88.92</v>
       </c>
       <c r="J242">
-        <v>2.49799919935935</v>
+        <v>2.5364542179980298</v>
       </c>
       <c r="K242">
-        <v>32.74</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="L242">
-        <v>404.8</v>
+        <v>791.2</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
@@ -9448,10 +9448,10 @@
         <v>1000</v>
       </c>
       <c r="C243" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D243" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E243">
         <v>0.8</v>
@@ -9460,36 +9460,36 @@
         <v>11</v>
       </c>
       <c r="G243">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I243">
-        <v>88.8</v>
+        <v>89</v>
       </c>
       <c r="J243">
-        <v>2.3323807579381102</v>
+        <v>2.8071337695236398</v>
       </c>
       <c r="K243">
-        <v>31.9</v>
+        <v>25.16</v>
       </c>
       <c r="L243">
-        <v>410.2</v>
+        <v>400.56</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B244">
         <v>1000</v>
       </c>
       <c r="C244" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D244" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E244">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F244" t="s">
         <v>11</v>
@@ -9498,65 +9498,65 @@
         <v>0.4</v>
       </c>
       <c r="I244">
-        <v>88.84</v>
+        <v>89.08</v>
       </c>
       <c r="J244">
-        <v>2.3694725151391798</v>
+        <v>2.65962403358068</v>
       </c>
       <c r="K244">
-        <v>4.9400000000000004</v>
+        <v>17.96</v>
       </c>
       <c r="L244">
-        <v>808.44</v>
+        <v>406.4</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B245">
         <v>1000</v>
       </c>
       <c r="C245" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D245" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E245">
         <v>0.7</v>
       </c>
       <c r="F245" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G245">
         <v>0.2</v>
       </c>
       <c r="I245">
-        <v>88.92</v>
+        <v>89.08</v>
       </c>
       <c r="J245">
-        <v>2.5364542179980298</v>
+        <v>2.44</v>
       </c>
       <c r="K245">
-        <v>4.3600000000000003</v>
+        <v>45.86</v>
       </c>
       <c r="L245">
-        <v>791.2</v>
+        <v>398.2</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B246">
         <v>1000</v>
       </c>
       <c r="C246" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D246" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E246">
         <v>0.8</v>
@@ -9568,16 +9568,16 @@
         <v>0.2</v>
       </c>
       <c r="I246">
-        <v>89</v>
+        <v>89.2</v>
       </c>
       <c r="J246">
-        <v>2.8071337695236398</v>
+        <v>2.3664319132398401</v>
       </c>
       <c r="K246">
-        <v>25.16</v>
+        <v>3.88</v>
       </c>
       <c r="L246">
-        <v>400.56</v>
+        <v>800.38</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
@@ -9588,66 +9588,66 @@
         <v>1000</v>
       </c>
       <c r="C247" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D247" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E247">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F247" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G247">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I247">
-        <v>89.08</v>
+        <v>89.2</v>
       </c>
       <c r="J247">
-        <v>2.65962403358068</v>
+        <v>2.65329983228431</v>
       </c>
       <c r="K247">
-        <v>17.96</v>
+        <v>35.1</v>
       </c>
       <c r="L247">
-        <v>406.4</v>
+        <v>427.98</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B248">
         <v>1000</v>
       </c>
       <c r="C248" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D248" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E248">
         <v>0.8</v>
       </c>
       <c r="F248" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G248">
         <v>0.2</v>
       </c>
       <c r="I248">
-        <v>89.2</v>
+        <v>89.24</v>
       </c>
       <c r="J248">
-        <v>2.3664319132398401</v>
+        <v>2.2231509170544399</v>
       </c>
       <c r="K248">
-        <v>3.88</v>
+        <v>34.979999999999997</v>
       </c>
       <c r="L248">
-        <v>800.38</v>
+        <v>396.8</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
@@ -9658,10 +9658,10 @@
         <v>1000</v>
       </c>
       <c r="C249" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D249" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E249">
         <v>0.7</v>
@@ -9693,10 +9693,10 @@
         <v>1000</v>
       </c>
       <c r="C250" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D250" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E250">
         <v>0.7</v>
@@ -9728,10 +9728,10 @@
         <v>1000</v>
       </c>
       <c r="C251" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D251" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E251">
         <v>0.8</v>
@@ -9766,7 +9766,7 @@
         <v>9</v>
       </c>
       <c r="D252" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E252">
         <v>0.8</v>
@@ -9801,7 +9801,7 @@
         <v>9</v>
       </c>
       <c r="D253" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E253">
         <v>0.7</v>
@@ -9833,10 +9833,10 @@
         <v>1000</v>
       </c>
       <c r="C254" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D254" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E254">
         <v>0.8</v>
@@ -9868,10 +9868,10 @@
         <v>1000</v>
       </c>
       <c r="C255" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D255" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E255">
         <v>0.7</v>
@@ -9903,10 +9903,10 @@
         <v>1000</v>
       </c>
       <c r="C256" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D256" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E256">
         <v>0.7</v>
@@ -9938,10 +9938,10 @@
         <v>1000</v>
       </c>
       <c r="C257" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D257" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E257">
         <v>0.8</v>
@@ -9973,10 +9973,10 @@
         <v>1000</v>
       </c>
       <c r="C258" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D258" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E258">
         <v>0.7</v>
